--- a/P5_CPU/流水线分析.xlsx
+++ b/P5_CPU/流水线分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="138">
   <si>
     <t>addu</t>
   </si>
@@ -281,6 +281,15 @@
     <t>PCSel</t>
   </si>
   <si>
+    <t>MFPCF</t>
+  </si>
+  <si>
+    <t>DR@W</t>
+  </si>
+  <si>
+    <t>AO@M</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -308,7 +317,7 @@
     <t>MI26</t>
   </si>
   <si>
-    <t>MI26Sel</t>
+    <t>I26Sel</t>
   </si>
   <si>
     <t>CMP</t>
@@ -317,9 +326,15 @@
     <t>D1</t>
   </si>
   <si>
+    <t>MFCMPD1D</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
+    <t>MFCMPD2D</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
@@ -335,7 +350,7 @@
     <t>MA3E</t>
   </si>
   <si>
-    <t>MA3ESel</t>
+    <t>A3ESel</t>
   </si>
   <si>
     <t>E32</t>
@@ -347,6 +362,9 @@
     <t>V1@E</t>
   </si>
   <si>
+    <t>MFALUAE</t>
+  </si>
+  <si>
     <t>E32@E</t>
   </si>
   <si>
@@ -362,12 +380,6 @@
     <t>MFALUBE</t>
   </si>
   <si>
-    <t>DR@W</t>
-  </si>
-  <si>
-    <t>AO@M</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -399,6 +411,9 @@
   </si>
   <si>
     <t>DM.DR</t>
+  </si>
+  <si>
+    <t>E32@M</t>
   </si>
   <si>
     <t>A3@W</t>
@@ -422,9 +437,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -481,6 +496,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -495,11 +534,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,30 +611,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,73 +619,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,19 +652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,49 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,43 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +712,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,31 +790,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,10 +893,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -890,26 +915,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,17 +945,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,124 +975,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,26 +1101,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,11 +1154,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1467,522 +1512,522 @@
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="13" customWidth="1"/>
-    <col min="2" max="3" width="6.375" style="13" customWidth="1"/>
-    <col min="4" max="5" width="9" style="13"/>
-    <col min="6" max="6" width="4.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="13" customWidth="1"/>
-    <col min="8" max="9" width="8.375" style="13" customWidth="1"/>
-    <col min="10" max="15" width="11.5" style="13" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="4.375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="6.375" style="19" customWidth="1"/>
+    <col min="4" max="5" width="9" style="19"/>
+    <col min="6" max="6" width="4.375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="19" customWidth="1"/>
+    <col min="8" max="9" width="8.375" style="19" customWidth="1"/>
+    <col min="10" max="15" width="11.5" style="19" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:17">
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="H2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="19">
         <v>1</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="19">
         <v>1</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="19">
         <v>1</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="19">
         <v>1</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="19">
         <v>1</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="19">
         <v>1</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="19">
         <v>1</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="19">
         <v>1</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="19">
         <v>1</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:17">
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="19">
         <v>1</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="19">
         <v>1</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="19">
         <v>1</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="19">
         <v>1</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="19">
         <v>1</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="19">
         <v>1</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="19">
         <v>1</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="19">
         <v>1</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="19">
         <v>1</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="3:16">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="19" t="s">
         <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="19" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="19" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
@@ -1994,15 +2039,15 @@
       <c r="K18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="19" t="s">
         <v>54</v>
       </c>
       <c r="H19" t="s">
@@ -2014,66 +2059,66 @@
       <c r="K19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="14"/>
+      <c r="O19" s="20"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="19" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="19" t="s">
         <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="13" t="s">
+      <c r="G23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="19" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="s">
@@ -2081,13 +2126,13 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>14</v>
       </c>
       <c r="L25" t="s">
@@ -2095,32 +2140,32 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="B28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
@@ -2131,21 +2176,21 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="19" t="s">
         <v>38</v>
       </c>
       <c r="K30" t="s">
@@ -2153,158 +2198,158 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="19" t="s">
         <v>68</v>
       </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="19">
         <v>1</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="19">
         <v>1</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="M33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="3:16">
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="7:16">
-      <c r="G36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P36" s="13" t="s">
+      <c r="G36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="7:14">
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="7:16">
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="14"/>
-      <c r="P39" s="14" t="s">
+      <c r="N39" s="20"/>
+      <c r="P39" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="6:14">
-      <c r="F40" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="13" t="s">
+      <c r="F40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="13" t="s">
+      <c r="N40" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="7:14">
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="13" t="s">
+      <c r="N41" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2338,7 +2383,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U20" sqref="U20"/>
@@ -2354,12 +2399,19 @@
     <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
     <col min="9" max="10" width="9.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
-    <col min="12" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="9.25" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="16" width="9.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="8.125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="5.875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:24">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2389,35 +2441,40 @@
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="9">
+      <c r="O1" s="9">
         <v>0</v>
       </c>
-      <c r="O1" s="9">
+      <c r="P1" s="9">
         <v>1</v>
       </c>
-      <c r="P1" s="9">
+      <c r="Q1" s="9">
         <v>2</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1">
+      <c r="V1" s="1">
         <v>0</v>
       </c>
-      <c r="T1" s="1">
+      <c r="W1" s="1">
         <v>1</v>
       </c>
-      <c r="U1" s="1">
+      <c r="X1" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:24">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -2449,23 +2506,40 @@
       <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2500,12 +2574,15 @@
       <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>21</v>
@@ -2538,14 +2615,17 @@
       <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2577,18 +2657,21 @@
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -2615,15 +2698,18 @@
         <v>21</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2631,100 +2717,105 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2732,27 +2823,28 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2760,35 +2852,36 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2801,18 +2894,31 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="2"/>
+      <c r="T12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2825,20 +2931,33 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="2"/>
+      <c r="T13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
@@ -2859,18 +2978,19 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
@@ -2887,91 +3007,94 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="2"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2979,32 +3102,37 @@
         <v>31</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="10" t="s">
-        <v>105</v>
+      <c r="L18" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="P18" s="10">
+        <v>94</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="10">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -3013,18 +3141,21 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="2"/>
+      <c r="L19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3034,18 +3165,19 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="2"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -3053,92 +3185,106 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="Q21" s="2"/>
+      <c r="T21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="W21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="X21" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="L22" s="2"/>
       <c r="M22" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="U22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="2"/>
+      <c r="T22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -3147,22 +3293,23 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M23" s="2"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -3171,18 +3318,19 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M24" s="2"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>59</v>
@@ -3203,48 +3351,52 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="7"/>
+      <c r="M25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" s="2"/>
+      <c r="L26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3254,256 +3406,359 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K27" s="7"/>
-      <c r="L27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="M28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M31" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="6"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="B32" s="6" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M32" s="2"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>127</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="J33" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="K33" s="7"/>
-      <c r="L33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M33" s="2"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M34" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="M35" s="10" t="s">
+      <c r="C39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N35" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="M39" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3514,15 +3769,10 @@
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A38:A39"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="S22" r:id="rId1" display="V2@E"/>
-    <hyperlink ref="T22" r:id="rId2" display="DR@W"/>
-    <hyperlink ref="U22" r:id="rId3" display="AO@M"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/P5_CPU/流水线分析.xlsx
+++ b/P5_CPU/流水线分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -496,6 +496,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -513,13 +557,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -528,37 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,6 +587,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -579,39 +602,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,7 +664,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +688,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,13 +772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,73 +796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,37 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,19 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,20 +882,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,17 +912,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,124 +975,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,19 +1101,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1512,7 +1512,7 @@
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="19" customWidth="1"/>
     <col min="2" max="3" width="6.375" style="19" customWidth="1"/>
@@ -2386,7 +2386,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3204,7 +3204,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="11" t="s">
         <v>114</v>
       </c>
       <c r="N21" s="2"/>

--- a/P5_CPU/流水线分析.xlsx
+++ b/P5_CPU/流水线分析.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chao4\Desktop\Verilog\P5_CPU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="225">
   <si>
     <t>addu</t>
   </si>
@@ -314,12 +321,6 @@
     <t>imm26@D</t>
   </si>
   <si>
-    <t>MI26</t>
-  </si>
-  <si>
-    <t>I26Sel</t>
-  </si>
-  <si>
     <t>CMP</t>
   </si>
   <si>
@@ -429,19 +430,387 @@
   </si>
   <si>
     <t>RFWDSel</t>
+  </si>
+  <si>
+    <t>imm26@D</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR@D</t>
+  </si>
+  <si>
+    <r>
+      <t>RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+  </si>
+  <si>
+    <t>IR@E</t>
+  </si>
+  <si>
+    <t>RS@E</t>
+  </si>
+  <si>
+    <t>RT@E</t>
+  </si>
+  <si>
+    <t>EXT@E</t>
+  </si>
+  <si>
+    <r>
+      <t>ALU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+  </si>
+  <si>
+    <t>IR@M</t>
+  </si>
+  <si>
+    <t>RT@M</t>
+  </si>
+  <si>
+    <t>IR@W</t>
+  </si>
+  <si>
+    <t>IR@D[rs]</t>
+  </si>
+  <si>
+    <t>IR@D[i16]</t>
+  </si>
+  <si>
+    <t>IR@W[rt]</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>ADDU</t>
+  </si>
+  <si>
+    <t>IR@D[rt]</t>
+  </si>
+  <si>
+    <t>IR@W[rd]</t>
+  </si>
+  <si>
+    <t>SUBU</t>
+  </si>
+  <si>
+    <t>ORI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEQ</t>
+  </si>
+  <si>
+    <t>IR@D[i26]</t>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAL</t>
+  </si>
+  <si>
+    <t>0x1F</t>
+  </si>
+  <si>
+    <t>JALR</t>
+  </si>
+  <si>
+    <t>JR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF.RD1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT@E</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT@E</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR@W[rt]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR@W[rd]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR@W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AO@W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC4@W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCSel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRSel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDSel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuse</t>
+  </si>
+  <si>
+    <t>rs/rt</t>
+  </si>
+  <si>
+    <t>cal_r</t>
+  </si>
+  <si>
+    <t>cal_i</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>1/rd</t>
+  </si>
+  <si>
+    <t>1/rt</t>
+  </si>
+  <si>
+    <t>2/rt</t>
+  </si>
+  <si>
+    <t>0/rd</t>
+  </si>
+  <si>
+    <t>0/rt</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cal_r</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cal_i</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令类型</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源寄存器</t>
+    </r>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>E Tnew</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>M Tnew</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>W Tnew</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前指令</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,179 +822,99 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Courier New"/>
-      <charset val="0"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,192 +953,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FF0099CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -873,254 +988,187 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1145,10 +1193,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,9 +1214,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1181,68 +1223,139 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1500,534 +1613,534 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="6.375" style="19" customWidth="1"/>
-    <col min="4" max="5" width="9" style="19"/>
-    <col min="6" max="6" width="4.375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="19" customWidth="1"/>
-    <col min="8" max="9" width="8.375" style="19" customWidth="1"/>
-    <col min="10" max="15" width="11.5" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="4.33203125" style="17" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" style="17" customWidth="1"/>
+    <col min="4" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="4.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="17" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" style="17" customWidth="1"/>
+    <col min="10" max="15" width="11.44140625" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:17">
-      <c r="H1" s="19" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="19" t="s">
+      <c r="H2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>1</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="17">
         <v>1</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <v>1</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="17">
         <v>1</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="17">
         <v>1</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="17">
         <v>1</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="17">
         <v>1</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="17">
         <v>1</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="17">
         <v>1</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:17">
-      <c r="C6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="19" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>1</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <v>1</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <v>1</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="17">
         <v>1</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="17">
         <v>1</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="17">
         <v>1</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="17">
         <v>1</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="17">
         <v>1</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="17">
         <v>1</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:16">
-      <c r="C9" s="19" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:15">
-      <c r="C16" s="19" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="19" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
@@ -2039,15 +2152,15 @@
       <c r="K18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>54</v>
       </c>
       <c r="H19" t="s">
@@ -2059,113 +2172,113 @@
       <c r="K19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="20"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="19" t="s">
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
         <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="19" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="19" t="s">
+      <c r="G23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="17" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="19" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="19" t="s">
+      <c r="F25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="L25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="19" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="19" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="19" t="s">
+      <c r="B28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="17" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
@@ -2175,243 +2288,243 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="17" t="s">
         <v>38</v>
       </c>
       <c r="K30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="17" t="s">
         <v>68</v>
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="3:15">
-      <c r="C32" s="19" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="17">
         <v>1</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="17">
         <v>1</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="M33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="20" t="s">
+      <c r="O33" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="19" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="20" t="s">
+      <c r="N34" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="20" t="s">
+      <c r="O34" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="3:16">
-      <c r="C35" s="19" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="19" t="s">
+      <c r="P35" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="7:16">
-      <c r="G36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P36" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="19" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G37" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="7:14">
-      <c r="G38" s="19" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G38" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="20" t="s">
+      <c r="N38" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="7:16">
-      <c r="G39" s="19" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G39" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="P39" s="20" t="s">
+      <c r="N39" s="18"/>
+      <c r="P39" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="6:14">
-      <c r="F40" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="19" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="7:14">
-      <c r="G41" s="19" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G41" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="19" t="s">
+      <c r="N41" s="17" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1" display="IR@D[15:0]"/>
-    <hyperlink ref="K13" r:id="rId1" display="IR@D[15:0]"/>
-    <hyperlink ref="M13" r:id="rId1" display="IR@D[15:0]"/>
-    <hyperlink ref="M18" r:id="rId2" display="A@D"/>
-    <hyperlink ref="M19" r:id="rId3" display="ER@D"/>
-    <hyperlink ref="H33" r:id="rId4" display="rd@W"/>
-    <hyperlink ref="J33" r:id="rId5" display="rt@W"/>
-    <hyperlink ref="M33" r:id="rId5" display="rt@W"/>
-    <hyperlink ref="M34" r:id="rId6" display="ALUC@W"/>
-    <hyperlink ref="N34" r:id="rId7" display="PC@W"/>
-    <hyperlink ref="H34" r:id="rId8" display="C@W"/>
-    <hyperlink ref="G31" r:id="rId9" display="DMDO@W"/>
-    <hyperlink ref="J34" r:id="rId9" display="DMDO@W"/>
-    <hyperlink ref="N38" r:id="rId10" display="IR@W[25:0]" tooltip="mailto:IR@W[25:0]"/>
-    <hyperlink ref="O34" r:id="rId11" display="ER@W"/>
-    <hyperlink ref="O33" r:id="rId5" display="rt@W"/>
-    <hyperlink ref="O13" r:id="rId1" display="IR@D[15:0]"/>
-    <hyperlink ref="G11" r:id="rId12" display="JR@D"/>
-    <hyperlink ref="P39" r:id="rId13" display="JR@W"/>
+    <hyperlink ref="J13" r:id="rId1"/>
+    <hyperlink ref="K13" r:id="rId2"/>
+    <hyperlink ref="M13" r:id="rId3"/>
+    <hyperlink ref="M18" r:id="rId4"/>
+    <hyperlink ref="M19" r:id="rId5"/>
+    <hyperlink ref="H33" r:id="rId6"/>
+    <hyperlink ref="J33" r:id="rId7"/>
+    <hyperlink ref="M33" r:id="rId8"/>
+    <hyperlink ref="M34" r:id="rId9"/>
+    <hyperlink ref="N34" r:id="rId10"/>
+    <hyperlink ref="H34" r:id="rId11"/>
+    <hyperlink ref="G31" r:id="rId12"/>
+    <hyperlink ref="J34" r:id="rId13"/>
+    <hyperlink ref="N38" r:id="rId14" tooltip="mailto:IR@W[25:0]"/>
+    <hyperlink ref="O34" r:id="rId15"/>
+    <hyperlink ref="O33" r:id="rId16"/>
+    <hyperlink ref="O13" r:id="rId17"/>
+    <hyperlink ref="G11" r:id="rId18"/>
+    <hyperlink ref="P39" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:X39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="16" width="9.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="8.125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="5.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2444,24 +2557,26 @@
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="23">
         <v>0</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="23">
         <v>1</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="23">
         <v>2</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15" t="s">
+      <c r="R1" s="14">
+        <v>3</v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14" t="s">
         <v>84</v>
       </c>
       <c r="V1" s="1">
@@ -2474,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -2509,37 +2624,37 @@
       <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2581,8 +2696,10 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="12"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>21</v>
@@ -2622,9 +2739,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="4" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2667,9 +2786,11 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="4"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>92</v>
       </c>
@@ -2708,9 +2829,11 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="3" t="s">
+      <c r="R6" s="12"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2747,9 +2870,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="3"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2778,8 +2903,10 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2809,9 +2936,11 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="3" t="s">
+      <c r="R9" s="12"/>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2840,9 +2969,11 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="3"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
       <c r="B11" s="3" t="s">
         <v>97</v>
       </c>
@@ -2862,26 +2993,22 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="B12" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2895,30 +3022,32 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="13"/>
       <c r="T12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="W12" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="X12" s="17" t="s">
+      <c r="X12" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2932,32 +3061,34 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="13"/>
       <c r="T13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="X13" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="6" t="s">
-        <v>106</v>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
@@ -2979,18 +3110,20 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>31</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="6"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="13"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
       <c r="B15" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
@@ -3008,16 +3141,18 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="6"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="13"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -3048,9 +3183,11 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="6"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
@@ -3077,9 +3214,11 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="6"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
@@ -3088,10 +3227,10 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>94</v>
@@ -3105,34 +3244,34 @@
       <c r="L18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>31</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="13"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>31</v>
-      </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -3142,18 +3281,19 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="6"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
       <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
@@ -3176,115 +3316,118 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="3" t="s">
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="11" t="s">
-        <v>114</v>
+      <c r="M21" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
       <c r="T21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="V21" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="W21" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="W21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="T22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="V22" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="O22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="T22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="B23" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -3294,22 +3437,23 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="13" t="s">
-        <v>117</v>
+      <c r="M23" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="6"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -3319,18 +3463,19 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="13" t="s">
-        <v>122</v>
+      <c r="M24" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="6"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>59</v>
@@ -3352,49 +3497,51 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>59</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="6"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
       <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="6"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
       <c r="B27" s="6" t="s">
         <v>92</v>
       </c>
@@ -3406,22 +3553,23 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="6"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
       <c r="B28" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3433,192 +3581,203 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2" t="s">
-        <v>90</v>
+      <c r="M30" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="11" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="2" t="s">
         <v>126</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
       <c r="B32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>128</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>128</v>
-      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="J32" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="6"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
       <c r="B33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
-        <v>129</v>
-      </c>
+      <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="2" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="6"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
       <c r="B34" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="2" t="s">
-        <v>90</v>
+      <c r="M34" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="6"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
       <c r="B35" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>131</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -3627,153 +3786,1748 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="L35" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="M35" s="12" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>116</v>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q37" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="P39" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q39" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="R39" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="S39" s="16"/>
+      <c r="R37" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="S37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A31:A35"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V34"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="40">
+        <v>0</v>
+      </c>
+      <c r="P1" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="40">
+        <v>2</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="V3" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="V4" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="V6" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="V7" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="V8" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="V9" s="35"/>
+    </row>
+    <row r="10" spans="1:22" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="V10" s="35"/>
+    </row>
+    <row r="11" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="V11" s="35"/>
+    </row>
+    <row r="12" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="V12" s="35"/>
+    </row>
+    <row r="13" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="V13" s="35"/>
+    </row>
+    <row r="14" spans="1:22" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="V14" s="35"/>
+    </row>
+    <row r="15" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="V15" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="V16" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="V17" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="V18" s="38"/>
+    </row>
+    <row r="19" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="V19" s="38"/>
+    </row>
+    <row r="20" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="V20" s="38"/>
+    </row>
+    <row r="21" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="V21" s="35"/>
+    </row>
+    <row r="22" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q22" s="35"/>
+      <c r="V22" s="35"/>
+    </row>
+    <row r="23" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="V23" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="V24" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="V25" s="38"/>
+    </row>
+    <row r="26" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="V26" s="38"/>
+    </row>
+    <row r="27" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="V27" s="35"/>
+    </row>
+    <row r="28" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="V28" s="35"/>
+    </row>
+    <row r="29" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="V29" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="V30" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="V31" s="38"/>
+    </row>
+    <row r="32" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="V32" s="38"/>
+    </row>
+    <row r="33" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="V33" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="54">
+        <v>1</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="54">
+        <v>1</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="54">
+        <v>1</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="54">
+        <v>1</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="54">
+        <v>2</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/P5_CPU/流水线分析.xlsx
+++ b/P5_CPU/流水线分析.xlsx
@@ -16,13 +16,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="261">
   <si>
     <t>addu</t>
   </si>
@@ -768,10 +769,6 @@
       </rPr>
       <t>源寄存器</t>
     </r>
-  </si>
-  <si>
-    <t>jr</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/</t>
@@ -805,12 +802,156 @@
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>流水级</t>
+  </si>
+  <si>
+    <t>源寄存器</t>
+  </si>
+  <si>
+    <t>涉及指令</t>
+  </si>
+  <si>
+    <t>IF/ID</t>
+  </si>
+  <si>
+    <t>ID/EX</t>
+  </si>
+  <si>
+    <t>EX/MEM</t>
+  </si>
+  <si>
+    <t>MFRSD</t>
+  </si>
+  <si>
+    <t>ForwardRSD</t>
+  </si>
+  <si>
+    <t>MFRTD</t>
+  </si>
+  <si>
+    <t>ForwardRTD</t>
+  </si>
+  <si>
+    <t>MFRSE</t>
+  </si>
+  <si>
+    <t>ForwardRSE</t>
+  </si>
+  <si>
+    <t>ID/EX.RS</t>
+  </si>
+  <si>
+    <t>MFRTE</t>
+  </si>
+  <si>
+    <t>ForwardRTE</t>
+  </si>
+  <si>
+    <t>ID/EX.RT</t>
+  </si>
+  <si>
+    <t>MFRTM</t>
+  </si>
+  <si>
+    <t>ForwardRTM</t>
+  </si>
+  <si>
+    <t>EX/MEM.RT</t>
+  </si>
+  <si>
+    <r>
+      <t>转发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MUX</t>
+    </r>
+  </si>
+  <si>
+    <t>控制信号</t>
+  </si>
+  <si>
+    <r>
+      <t>输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>(Tnew)</t>
+  </si>
+  <si>
+    <t>MEM/WB</t>
+  </si>
+  <si>
+    <t>ld</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>cal_r , jr</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/31</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/31</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq, jr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cal_r, cal_i, ld, st</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cal_r, st</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,8 +1054,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,8 +1123,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1159,6 +1325,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="medium">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1168,7 +1382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,6 +1443,99 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,9 +1545,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,52 +1554,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,40 +1584,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2557,19 +2816,19 @@
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="23">
+      <c r="O1" s="20">
         <v>0</v>
       </c>
-      <c r="P1" s="23">
+      <c r="P1" s="20">
         <v>1</v>
       </c>
-      <c r="Q1" s="23">
+      <c r="Q1" s="20">
         <v>2</v>
       </c>
       <c r="R1" s="14">
@@ -2743,7 +3002,7 @@
       <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="51" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2790,7 +3049,7 @@
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="4" t="s">
         <v>92</v>
       </c>
@@ -2833,7 +3092,7 @@
       <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2874,7 +3133,7 @@
       <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2940,7 +3199,7 @@
       <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2973,7 +3232,7 @@
       <c r="S10" s="13"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>97</v>
       </c>
@@ -3004,7 +3263,7 @@
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="52" t="s">
         <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3045,7 +3304,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="3" t="s">
         <v>102</v>
       </c>
@@ -3084,7 +3343,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="53" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3121,7 +3380,7 @@
       <c r="S14" s="13"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="6" t="s">
         <v>106</v>
       </c>
@@ -3152,7 +3411,7 @@
       <c r="S15" s="13"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -3187,7 +3446,7 @@
       <c r="S16" s="13"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
@@ -3218,7 +3477,7 @@
       <c r="S17" s="13"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
@@ -3263,7 +3522,7 @@
       <c r="S18" s="13"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="6" t="s">
         <v>110</v>
       </c>
@@ -3293,7 +3552,7 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
@@ -3319,7 +3578,7 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3367,7 +3626,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
@@ -3419,7 +3678,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="54" t="s">
         <v>119</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3447,7 +3706,7 @@
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
@@ -3473,7 +3732,7 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="6" t="s">
         <v>121</v>
       </c>
@@ -3507,7 +3766,7 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
@@ -3541,7 +3800,7 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="6" t="s">
         <v>92</v>
       </c>
@@ -3567,7 +3826,7 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="6" t="s">
         <v>110</v>
       </c>
@@ -3593,7 +3852,7 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="52" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3629,7 +3888,7 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -3655,7 +3914,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="54" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3689,7 +3948,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="6" t="s">
         <v>92</v>
       </c>
@@ -3715,7 +3974,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="6" t="s">
         <v>121</v>
       </c>
@@ -3747,7 +4006,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="6" t="s">
         <v>128</v>
       </c>
@@ -3773,7 +4032,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="6" t="s">
         <v>110</v>
       </c>
@@ -3799,7 +4058,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3833,7 +4092,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
@@ -3902,8 +4161,8 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3924,1221 +4183,1221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="40">
+      <c r="O1" s="32">
         <v>0</v>
       </c>
-      <c r="P1" s="40">
+      <c r="P1" s="32">
         <v>1</v>
       </c>
-      <c r="Q1" s="40">
+      <c r="Q1" s="32">
         <v>2</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="A2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="V2" s="27"/>
     </row>
     <row r="3" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="36" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="V3" s="36" t="s">
+      <c r="M3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="V3" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="36" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="M4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="V4" s="36" t="s">
+      <c r="M4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="V4" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="37" t="s">
+      <c r="A5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="V6" s="37" t="s">
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="V6" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="37" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="V7" s="37" t="s">
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="V7" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="V8" s="36" t="s">
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="V8" s="28" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="V9" s="35"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:22" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="V10" s="35"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="V10" s="27"/>
     </row>
     <row r="11" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36" t="s">
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="V11" s="35"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36" t="s">
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="V12" s="35"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="1:22" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36" t="s">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="V13" s="35"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:22" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36" t="s">
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="V14" s="35"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="37" t="s">
+      <c r="A15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="V15" s="37" t="s">
+      <c r="L15" s="30"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="V15" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="37" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37" t="s">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="V16" s="37" t="s">
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="V16" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="37" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="37" t="s">
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="V17" s="37" t="s">
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="V17" s="29" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="37" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="V18" s="30"/>
     </row>
     <row r="19" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="37" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="V19" s="38"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="V19" s="30"/>
     </row>
     <row r="20" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="37" t="s">
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="37" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="V20" s="38"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="V20" s="30"/>
     </row>
     <row r="21" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="V21" s="35"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="V21" s="27"/>
     </row>
     <row r="22" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36" t="s">
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="M22" s="36" t="s">
+      <c r="M22" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="N22" s="36" t="s">
+      <c r="N22" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="O22" s="36" t="s">
+      <c r="O22" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="P22" s="36" t="s">
+      <c r="P22" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="Q22" s="35"/>
-      <c r="V22" s="35"/>
+      <c r="Q22" s="27"/>
+      <c r="V22" s="27"/>
     </row>
     <row r="23" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="37" t="s">
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37" t="s">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="V23" s="37" t="s">
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="V23" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="37" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="37" t="s">
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="V24" s="37" t="s">
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="V24" s="29" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="37" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="37" t="s">
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="V25" s="38"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="V25" s="30"/>
     </row>
     <row r="26" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="37" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="37" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="V26" s="38"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="V26" s="30"/>
     </row>
     <row r="27" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="V27" s="35"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="V27" s="27"/>
     </row>
     <row r="28" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="V28" s="35"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="V28" s="27"/>
     </row>
     <row r="29" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="37" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="37" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="37" t="s">
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="V29" s="37" t="s">
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="V29" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="37" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="37" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="V30" s="37" t="s">
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="V30" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="37" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="37" t="s">
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="V31" s="38"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="V31" s="30"/>
     </row>
     <row r="32" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="37" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="37" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="V32" s="38"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="V32" s="30"/>
     </row>
     <row r="33" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36" t="s">
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36" t="s">
+      <c r="K33" s="28"/>
+      <c r="L33" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="M33" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="N33" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="P33" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="Q33" s="36" t="s">
+      <c r="Q33" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="V33" s="36" t="s">
+      <c r="V33" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="34" t="s">
+    <row r="34" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
+      <c r="B34" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36" t="s">
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36" t="s">
+      <c r="K34" s="28"/>
+      <c r="L34" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="M34" s="36" t="s">
+      <c r="M34" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="N34" s="36" t="s">
+      <c r="N34" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="O34" s="36" t="s">
+      <c r="O34" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="P34" s="36" t="s">
+      <c r="P34" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="Q34" s="36" t="s">
+      <c r="Q34" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="V34" s="36" t="s">
+      <c r="V34" s="28" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5148,386 +5407,721 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.5546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="49"/>
+    <col min="1" max="1" width="18" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="35" customWidth="1"/>
+    <col min="8" max="9" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="35" customWidth="1"/>
+    <col min="12" max="13" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+    <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-    </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="M2" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="N2" s="36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+    <row r="3" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="I3" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="J3" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="K3" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="L3" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="M3" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="N3" s="37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="38">
         <v>0</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="I4" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="J4" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="54" t="s">
+      <c r="K4" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="38">
         <v>1</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="I5" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="J5" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="K5" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="38">
         <v>1</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="I6" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="J6" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="K6" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="38">
         <v>1</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="I7" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="J7" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="J7" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="K7" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="38">
         <v>1</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="I8" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="J8" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="K8" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="38">
         <v>2</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="I9" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="J9" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="K9" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="35" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="G1" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="68"/>
+      <c r="I1" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="71"/>
+      <c r="K1" s="68"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/P5_CPU/流水线分析.xlsx
+++ b/P5_CPU/流水线分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="14400" windowHeight="12120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="225">
   <si>
     <t>addu</t>
   </si>
@@ -702,7 +702,10 @@
     <t>ForwardRSD</t>
   </si>
   <si>
-    <t>PC4+4</t>
+    <t>PC4@M+4</t>
+  </si>
+  <si>
+    <t>PC4@W+4</t>
   </si>
   <si>
     <t>MFRTD</t>
@@ -799,9 +802,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -833,6 +836,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -897,14 +908,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -919,8 +922,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,39 +968,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,39 +1006,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,7 +1030,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,7 +1107,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,19 +1155,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,61 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,7 +1245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,55 +1263,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,7 +1549,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1567,6 +1594,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1577,45 +1619,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,158 +1638,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1820,169 +1826,175 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2310,522 +2322,522 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33333333333333" style="65" customWidth="1"/>
-    <col min="2" max="3" width="6.33333333333333" style="65" customWidth="1"/>
-    <col min="4" max="5" width="9" style="65"/>
-    <col min="6" max="6" width="4.33333333333333" style="65" customWidth="1"/>
-    <col min="7" max="7" width="7.33333333333333" style="65" customWidth="1"/>
-    <col min="8" max="9" width="8.33333333333333" style="65" customWidth="1"/>
-    <col min="10" max="15" width="11.4416666666667" style="65" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="65"/>
+    <col min="1" max="1" width="4.33333333333333" style="68" customWidth="1"/>
+    <col min="2" max="3" width="6.33333333333333" style="68" customWidth="1"/>
+    <col min="4" max="5" width="9" style="68"/>
+    <col min="6" max="6" width="4.33333333333333" style="68" customWidth="1"/>
+    <col min="7" max="7" width="7.33333333333333" style="68" customWidth="1"/>
+    <col min="8" max="9" width="8.33333333333333" style="68" customWidth="1"/>
+    <col min="10" max="15" width="11.4416666666667" style="68" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:17">
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="65" t="s">
+      <c r="H2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="68">
         <v>1</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="68">
         <v>1</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="68">
         <v>1</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="68">
         <v>1</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="68">
         <v>1</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="68">
         <v>1</v>
       </c>
-      <c r="N3" s="65">
+      <c r="N3" s="68">
         <v>1</v>
       </c>
-      <c r="O3" s="65">
+      <c r="O3" s="68">
         <v>1</v>
       </c>
-      <c r="P3" s="65">
+      <c r="P3" s="68">
         <v>1</v>
       </c>
-      <c r="Q3" s="65">
+      <c r="Q3" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="68" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="68" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:17">
-      <c r="C6" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="65" t="s">
+      <c r="C6" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="65" t="s">
+      <c r="Q6" s="68" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="65" t="s">
+      <c r="F7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="68">
         <v>1</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="68">
         <v>1</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="68">
         <v>1</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="68">
         <v>1</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="68">
         <v>1</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="68">
         <v>1</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="68">
         <v>1</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="68">
         <v>1</v>
       </c>
-      <c r="P7" s="65">
+      <c r="P7" s="68">
         <v>1</v>
       </c>
-      <c r="Q7" s="65">
+      <c r="Q7" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="68" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="3:16">
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="68" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="68" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="68" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="67" t="s">
+      <c r="K13" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="67" t="s">
+      <c r="M13" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="67" t="s">
+      <c r="O13" s="70" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="68" t="s">
         <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="68" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="65" t="s">
+      <c r="L15" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="68" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="68" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M17" s="68" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="68" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
@@ -2837,15 +2849,15 @@
       <c r="K18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="69" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="68" t="s">
         <v>54</v>
       </c>
       <c r="H19" t="s">
@@ -2857,66 +2869,66 @@
       <c r="K19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="66" t="s">
+      <c r="M19" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="66"/>
+      <c r="O19" s="69"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="68" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="68" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="68" t="s">
         <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="68" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="65" t="s">
+      <c r="L22" s="68" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="65" t="s">
+      <c r="G23" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="68" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="68" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="s">
@@ -2924,13 +2936,13 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="65" t="s">
+      <c r="F25" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="68" t="s">
         <v>14</v>
       </c>
       <c r="L25" t="s">
@@ -2938,32 +2950,32 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="65" t="s">
+      <c r="G26" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="65" t="s">
+      <c r="L26" s="68" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="68" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="65" t="s">
+      <c r="B28" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="68" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
@@ -2974,21 +2986,21 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="65">
+      <c r="K29" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="68" t="s">
         <v>38</v>
       </c>
       <c r="K30" t="s">
@@ -2996,158 +3008,158 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="65" t="s">
+      <c r="J31" s="68" t="s">
         <v>68</v>
       </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="68">
         <v>1</v>
       </c>
-      <c r="J32" s="65">
+      <c r="J32" s="68">
         <v>1</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="65" t="s">
+      <c r="N32" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="66" t="s">
+      <c r="H33" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="66" t="s">
+      <c r="J33" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="66" t="s">
+      <c r="M33" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="65" t="s">
+      <c r="N33" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="66" t="s">
+      <c r="O33" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="66" t="s">
+      <c r="H34" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="66" t="s">
+      <c r="J34" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="66" t="s">
+      <c r="M34" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="66" t="s">
+      <c r="N34" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="66" t="s">
+      <c r="O34" s="69" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="3:16">
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="65" t="s">
+      <c r="N35" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="65" t="s">
+      <c r="P35" s="68" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="7:16">
-      <c r="G36" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="P36" s="65" t="s">
+      <c r="G36" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="65" t="s">
+      <c r="G37" s="68" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="7:14">
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="66" t="s">
+      <c r="N38" s="69" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="7:16">
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="66"/>
-      <c r="P39" s="66" t="s">
+      <c r="N39" s="69"/>
+      <c r="P39" s="69" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="6:14">
-      <c r="F40" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="65" t="s">
+      <c r="F40" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="65" t="s">
+      <c r="N40" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="7:14">
-      <c r="G41" s="65" t="s">
+      <c r="G41" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="65" t="s">
+      <c r="N41" s="68" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3189,1381 +3201,1381 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.775" style="45" customWidth="1"/>
-    <col min="2" max="2" width="7" style="45" customWidth="1"/>
-    <col min="3" max="4" width="11" style="45" customWidth="1"/>
-    <col min="5" max="6" width="9.66666666666667" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11" style="45" customWidth="1"/>
-    <col min="8" max="8" width="12.4416666666667" style="45" customWidth="1"/>
-    <col min="9" max="10" width="11" style="45" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" style="45" customWidth="1"/>
-    <col min="12" max="14" width="11" style="45" customWidth="1"/>
-    <col min="15" max="15" width="7" style="45" customWidth="1"/>
-    <col min="16" max="16" width="8.33333333333333" style="45" customWidth="1"/>
-    <col min="17" max="17" width="9.66666666666667" style="45" customWidth="1"/>
-    <col min="18" max="18" width="8.33333333333333" style="45" customWidth="1"/>
-    <col min="19" max="19" width="8.10833333333333" style="45" customWidth="1"/>
-    <col min="20" max="20" width="12.4416666666667" style="45" customWidth="1"/>
-    <col min="21" max="21" width="9" style="45"/>
-    <col min="22" max="22" width="9.66666666666667" style="45" customWidth="1"/>
-    <col min="23" max="24" width="7" style="45" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="5.775" style="48" customWidth="1"/>
+    <col min="2" max="2" width="7" style="48" customWidth="1"/>
+    <col min="3" max="4" width="11" style="48" customWidth="1"/>
+    <col min="5" max="6" width="9.66666666666667" style="48" customWidth="1"/>
+    <col min="7" max="7" width="11" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.4416666666667" style="48" customWidth="1"/>
+    <col min="9" max="10" width="11" style="48" customWidth="1"/>
+    <col min="11" max="11" width="9.66666666666667" style="48" customWidth="1"/>
+    <col min="12" max="14" width="11" style="48" customWidth="1"/>
+    <col min="15" max="15" width="7" style="48" customWidth="1"/>
+    <col min="16" max="16" width="8.33333333333333" style="48" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" style="48" customWidth="1"/>
+    <col min="18" max="18" width="8.33333333333333" style="48" customWidth="1"/>
+    <col min="19" max="19" width="8.10833333333333" style="48" customWidth="1"/>
+    <col min="20" max="20" width="12.4416666666667" style="48" customWidth="1"/>
+    <col min="21" max="21" width="9" style="48"/>
+    <col min="22" max="22" width="9.66666666666667" style="48" customWidth="1"/>
+    <col min="23" max="24" width="7" style="48" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="56">
+      <c r="O1" s="59">
         <v>0</v>
       </c>
-      <c r="P1" s="56">
+      <c r="P1" s="59">
         <v>1</v>
       </c>
-      <c r="Q1" s="56">
+      <c r="Q1" s="59">
         <v>2</v>
       </c>
-      <c r="R1" s="61">
+      <c r="R1" s="64">
         <v>3</v>
       </c>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61" t="s">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="45">
+      <c r="V1" s="48">
         <v>0</v>
       </c>
-      <c r="W1" s="45">
+      <c r="W1" s="48">
         <v>1</v>
       </c>
-      <c r="X1" s="45">
+      <c r="X1" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="45" t="s">
+      <c r="R2" s="61"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="63" t="s">
+      <c r="X2" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="62"/>
+      <c r="C3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="62"/>
+      <c r="C4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="65"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="62"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="65"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="62"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="65"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46" t="s">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46" t="s">
+      <c r="L7" s="49"/>
+      <c r="M7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="62"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="65"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46" t="s">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="62"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="65"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="62"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="65"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46" t="s">
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="62"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="65"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="62"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="65"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="59" t="s">
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="45" t="s">
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="V12" s="45" t="s">
+      <c r="V12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="64" t="s">
+      <c r="W12" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="X12" s="63" t="s">
+      <c r="X12" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="59" t="s">
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="45" t="s">
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="V13" s="45" t="s">
+      <c r="V13" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="63" t="s">
+      <c r="W13" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="X13" s="63" t="s">
+      <c r="X13" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="60" t="s">
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="62"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="65"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="60" t="s">
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="62"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="65"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="46" t="s">
+      <c r="H16" s="57"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="62"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="65"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="46" t="s">
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="62"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="65"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51">
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54">
         <v>31</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51" t="s">
+      <c r="K18" s="54"/>
+      <c r="L18" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="57" t="s">
+      <c r="M18" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="57" t="s">
+      <c r="N18" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="57" t="s">
+      <c r="O18" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="57" t="s">
+      <c r="P18" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="Q18" s="60">
         <v>31</v>
       </c>
-      <c r="R18" s="58"/>
-      <c r="S18" s="62"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="65"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="46" t="s">
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="59" t="s">
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="T21" s="45" t="s">
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="T21" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="V21" s="63" t="s">
+      <c r="V21" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="W21" s="63" t="s">
+      <c r="W21" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="X21" s="63" t="s">
+      <c r="X21" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="57" t="s">
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="57" t="s">
+      <c r="N22" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="O22" s="59" t="s">
+      <c r="O22" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="T22" s="45" t="s">
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="T22" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="V22" s="63" t="s">
+      <c r="V22" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="W22" s="63" t="s">
+      <c r="W22" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="X22" s="63" t="s">
+      <c r="X22" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="58" t="s">
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="53"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="58" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="53"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="60" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="53"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="51" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51" t="s">
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="M26" s="46" t="s">
+      <c r="M26" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="53"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="46" t="s">
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="55"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="M28" s="58" t="s">
+      <c r="M28" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46" t="s">
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="59" t="s">
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51" t="s">
+      <c r="D31" s="54"/>
+      <c r="E31" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="46" t="s">
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="53"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="56"/>
+      <c r="B32" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51" t="s">
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="46" t="s">
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="53"/>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51" t="s">
+      <c r="D33" s="54"/>
+      <c r="E33" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="46" t="s">
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="53"/>
-      <c r="B34" s="50" t="s">
+      <c r="A34" s="56"/>
+      <c r="B34" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="60" t="s">
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="55"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M35" s="58" t="s">
+      <c r="M35" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46" t="s">
+      <c r="D36" s="49"/>
+      <c r="E36" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46" t="s">
+      <c r="D37" s="49"/>
+      <c r="E37" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46" t="s">
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46" t="s">
+      <c r="K37" s="49"/>
+      <c r="L37" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="57" t="s">
+      <c r="M37" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="57" t="s">
+      <c r="N37" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="O37" s="57" t="s">
+      <c r="O37" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="Q37" s="57" t="s">
+      <c r="Q37" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="R37" s="57" t="s">
+      <c r="R37" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="S37" s="62"/>
+      <c r="S37" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4589,12 +4601,12 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="5.775" customWidth="1"/>
@@ -4612,1210 +4624,1210 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="3:22">
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="42">
+      <c r="O1" s="45">
         <v>0</v>
       </c>
-      <c r="P1" s="42">
+      <c r="P1" s="45">
         <v>1</v>
       </c>
-      <c r="Q1" s="42">
+      <c r="Q1" s="45">
         <v>2</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" ht="23.25" spans="1:22">
-      <c r="A2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="V2" s="32"/>
+      <c r="A2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="V2" s="35"/>
     </row>
     <row r="3" ht="17.25" spans="1:22">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="V3" s="33" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="V3" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:22">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="V4" s="33" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="V4" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="23.25" spans="1:22">
-      <c r="A5" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:22">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="V6" s="36" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="V6" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="V7" s="36" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="V7" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="V8" s="33" t="s">
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="V8" s="36" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A9" s="41"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="V9" s="32"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="V9" s="35"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:22">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="V10" s="32"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="V10" s="35"/>
     </row>
     <row r="11" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="V11" s="32"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="V11" s="35"/>
     </row>
     <row r="12" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A12" s="41"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="V12" s="32"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="V12" s="35"/>
     </row>
     <row r="13" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="V13" s="32"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="V13" s="35"/>
     </row>
     <row r="14" ht="51" customHeight="1" spans="1:22">
-      <c r="A14" s="41"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33" t="s">
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="V14" s="32"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="V14" s="35"/>
     </row>
     <row r="15" ht="23.25" spans="1:22">
-      <c r="A15" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36" t="s">
+      <c r="A15" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="V15" s="36" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="V15" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" ht="23.25" spans="1:22">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="36" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36" t="s">
+      <c r="K16" s="39"/>
+      <c r="L16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="36" t="s">
+      <c r="M16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="V16" s="36" t="s">
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="V16" s="39" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" ht="23.25" spans="1:22">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="36" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="36" t="s">
+      <c r="K17" s="39"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="V17" s="36" t="s">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="V17" s="39" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" ht="23.25" spans="1:22">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="36" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="V18" s="41"/>
     </row>
     <row r="19" ht="23.25" spans="1:22">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="36" t="s">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="V19" s="38"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="V19" s="41"/>
     </row>
     <row r="20" ht="23.25" spans="1:22">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="36" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="36" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="36" t="s">
+      <c r="M20" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="V20" s="38"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="V20" s="41"/>
     </row>
     <row r="21" ht="23.25" spans="1:22">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33" t="s">
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="33" t="s">
+      <c r="M21" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="V21" s="32"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="V21" s="35"/>
     </row>
     <row r="22" ht="23.25" spans="1:22">
-      <c r="A22" s="41"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33" t="s">
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="33" t="s">
+      <c r="M22" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="33" t="s">
+      <c r="N22" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="33" t="s">
+      <c r="P22" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="Q22" s="32"/>
-      <c r="V22" s="32"/>
+      <c r="Q22" s="35"/>
+      <c r="V22" s="35"/>
     </row>
     <row r="23" ht="23.25" spans="1:22">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="36" t="s">
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36" t="s">
+      <c r="K23" s="39"/>
+      <c r="L23" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="36" t="s">
+      <c r="M23" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="V23" s="36" t="s">
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="V23" s="39" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24" ht="23.25" spans="1:22">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="36" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="36"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="36" t="s">
+      <c r="K24" s="39"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="V24" s="36" t="s">
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="V24" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" ht="23.25" spans="1:22">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="36" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="36" t="s">
+      <c r="M25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="V25" s="38"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="V25" s="41"/>
     </row>
     <row r="26" ht="23.25" spans="1:22">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="36" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="36" t="s">
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="V26" s="38"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="V26" s="41"/>
     </row>
     <row r="27" ht="23.25" spans="1:22">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33" t="s">
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="V27" s="32"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="V27" s="35"/>
     </row>
     <row r="28" ht="23.25" spans="1:22">
-      <c r="A28" s="41"/>
-      <c r="B28" s="40" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="V28" s="32"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="V28" s="35"/>
     </row>
     <row r="29" ht="23.25" spans="1:22">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="36" t="s">
+      <c r="D29" s="41"/>
+      <c r="E29" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="36" t="s">
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36" t="s">
+      <c r="K29" s="39"/>
+      <c r="L29" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="M29" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="V29" s="36" t="s">
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="V29" s="39" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" ht="23.25" spans="1:22">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="36" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="36" t="s">
+      <c r="K30" s="39"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="V30" s="36" t="s">
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="V30" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" ht="23.25" spans="1:22">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="36" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="36" t="s">
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="36" t="s">
+      <c r="M31" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="V31" s="38"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="V31" s="41"/>
     </row>
     <row r="32" ht="23.25" spans="1:22">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="36" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="36" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="V32" s="38"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="V32" s="41"/>
     </row>
     <row r="33" ht="23.25" spans="1:22">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33" t="s">
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33" t="s">
+      <c r="K33" s="36"/>
+      <c r="L33" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="M33" s="33" t="s">
+      <c r="M33" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="N33" s="33" t="s">
+      <c r="N33" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="O33" s="33" t="s">
+      <c r="O33" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="P33" s="33" t="s">
+      <c r="P33" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="Q33" s="33" t="s">
+      <c r="Q33" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="V33" s="33" t="s">
+      <c r="V33" s="36" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="34" ht="23.25" spans="1:22">
-      <c r="A34" s="41"/>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33" t="s">
+      <c r="D34" s="35"/>
+      <c r="E34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="33" t="s">
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33" t="s">
+      <c r="K34" s="36"/>
+      <c r="L34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="M34" s="33" t="s">
+      <c r="M34" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="N34" s="33" t="s">
+      <c r="N34" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="O34" s="33" t="s">
+      <c r="O34" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="P34" s="33" t="s">
+      <c r="P34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="Q34" s="33" t="s">
+      <c r="Q34" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="V34" s="33" t="s">
+      <c r="V34" s="36" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5845,412 +5857,412 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="18" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.1083333333333" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8" style="15" customWidth="1"/>
-    <col min="4" max="5" width="9.55833333333333" style="15" customWidth="1"/>
-    <col min="6" max="7" width="8" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9.55833333333333" style="15" customWidth="1"/>
-    <col min="10" max="11" width="8" style="15" customWidth="1"/>
-    <col min="12" max="13" width="9.55833333333333" style="15" customWidth="1"/>
-    <col min="14" max="14" width="8" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="8.88333333333333" style="15"/>
+    <col min="1" max="1" width="18" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.1083333333333" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8" style="18" customWidth="1"/>
+    <col min="4" max="5" width="9.55833333333333" style="18" customWidth="1"/>
+    <col min="6" max="7" width="8" style="18" customWidth="1"/>
+    <col min="8" max="9" width="9.55833333333333" style="18" customWidth="1"/>
+    <col min="10" max="11" width="8" style="18" customWidth="1"/>
+    <col min="12" max="13" width="9.55833333333333" style="18" customWidth="1"/>
+    <col min="14" max="14" width="8" style="18" customWidth="1"/>
+    <col min="15" max="16384" width="8.88333333333333" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.6" customHeight="1" spans="1:14">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="16" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="26" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:14">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="22" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" ht="20.25" spans="1:14">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="23" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:14">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="24">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:14">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="24">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="6" ht="20.25" spans="1:14">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="24">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="7" ht="20.25" spans="1:14">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="24">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="8" ht="20.25" spans="1:14">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="24">
         <v>1</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" ht="20.25" spans="1:14">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="24">
         <v>2</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6274,326 +6286,374 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.8833333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33333333333333" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="16383" width="8.88333333333333" style="1"/>
+    <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="16383" width="8.88333333333333" style="1"/>
     <col min="16384" max="16384" width="8.88333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="7:13">
-      <c r="G1" s="5" t="s">
+    <row r="1" ht="22.5" spans="1:13">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" ht="24" spans="7:13">
-      <c r="G2" s="7" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" ht="23.25" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" ht="24" spans="7:13">
-      <c r="G3" s="9" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" ht="23.25" spans="1:13">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="24" spans="1:13">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" ht="21.75" spans="1:13">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="20.25" spans="1:13">
+      <c r="A5" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25" spans="1:13">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" ht="23.25" spans="1:13">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="J6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" ht="20.25" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" ht="23.25" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" ht="23.25" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" ht="21" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" ht="21.75" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" ht="23.25" spans="1:13">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" ht="23.25" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" ht="21.75" spans="4:12">
-      <c r="D10" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" display="PC4@M+4"/>
+    <hyperlink ref="I6" r:id="rId1" display="PC4@M+4"/>
+    <hyperlink ref="I7" r:id="rId1" display="PC4@M+4"/>
+    <hyperlink ref="I8" r:id="rId1" display="PC4@M+4"/>
+    <hyperlink ref="M5" r:id="rId2" display="PC4@W+4"/>
+    <hyperlink ref="M6" r:id="rId2" display="PC4@W+4"/>
+    <hyperlink ref="M7" r:id="rId2" display="PC4@W+4"/>
+    <hyperlink ref="M8" r:id="rId2" display="PC4@W+4"/>
+    <hyperlink ref="M9" r:id="rId2" display="PC4@W+4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/P5_CPU/流水线分析.xlsx
+++ b/P5_CPU/流水线分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12120" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -801,10 +801,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -836,14 +836,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -908,6 +900,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -915,6 +915,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -930,69 +975,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,23 +991,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,7 +1009,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1107,7 +1107,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,73 +1257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,91 +1275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,11 +1402,13 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1417,15 +1419,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1435,13 +1428,11 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1463,6 +1454,15 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1549,31 +1549,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1589,6 +1565,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1623,13 +1610,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1638,152 +1638,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1823,178 +1823,181 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2322,522 +2325,522 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.33333333333333" style="68" customWidth="1"/>
-    <col min="2" max="3" width="6.33333333333333" style="68" customWidth="1"/>
-    <col min="4" max="5" width="9" style="68"/>
-    <col min="6" max="6" width="4.33333333333333" style="68" customWidth="1"/>
-    <col min="7" max="7" width="7.33333333333333" style="68" customWidth="1"/>
-    <col min="8" max="9" width="8.33333333333333" style="68" customWidth="1"/>
-    <col min="10" max="15" width="11.4416666666667" style="68" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="68"/>
+    <col min="1" max="1" width="4.33333333333333" style="69" customWidth="1"/>
+    <col min="2" max="3" width="6.33333333333333" style="69" customWidth="1"/>
+    <col min="4" max="5" width="9" style="69"/>
+    <col min="6" max="6" width="4.33333333333333" style="69" customWidth="1"/>
+    <col min="7" max="7" width="7.33333333333333" style="69" customWidth="1"/>
+    <col min="8" max="9" width="8.33333333333333" style="69" customWidth="1"/>
+    <col min="10" max="15" width="11.4416666666667" style="69" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:17">
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="68" t="s">
+      <c r="H2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="69">
         <v>1</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="69">
         <v>1</v>
       </c>
-      <c r="J3" s="68">
+      <c r="J3" s="69">
         <v>1</v>
       </c>
-      <c r="K3" s="68">
+      <c r="K3" s="69">
         <v>1</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="69">
         <v>1</v>
       </c>
-      <c r="M3" s="68">
+      <c r="M3" s="69">
         <v>1</v>
       </c>
-      <c r="N3" s="68">
+      <c r="N3" s="69">
         <v>1</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="69">
         <v>1</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="69">
         <v>1</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="69" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="68" t="s">
+      <c r="N5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="69" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:17">
-      <c r="C6" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="68" t="s">
+      <c r="C6" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="68" t="s">
+      <c r="L6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="M6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="68" t="s">
+      <c r="N6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="68" t="s">
+      <c r="O6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="68" t="s">
+      <c r="P6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="68" t="s">
+      <c r="Q6" s="69" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="68" t="s">
+      <c r="F7" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="69">
         <v>1</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="69">
         <v>1</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="69">
         <v>1</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="69">
         <v>1</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="69">
         <v>1</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="69">
         <v>1</v>
       </c>
-      <c r="N7" s="68">
+      <c r="N7" s="69">
         <v>1</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="69">
         <v>1</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="69">
         <v>1</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="68" t="s">
+      <c r="L8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="68" t="s">
+      <c r="M8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="68" t="s">
+      <c r="N8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="68" t="s">
+      <c r="O8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="68" t="s">
+      <c r="P8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="68" t="s">
+      <c r="Q8" s="69" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="3:16">
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="K9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="68" t="s">
+      <c r="L9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="M9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="68" t="s">
+      <c r="P9" s="69" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="69" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="68" t="s">
+      <c r="P11" s="69" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="M12" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="69" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="70" t="s">
+      <c r="M13" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="70" t="s">
+      <c r="O13" s="71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="69" t="s">
         <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="68" t="s">
+      <c r="L14" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="68" t="s">
+      <c r="M14" s="69" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="69" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="68" t="s">
+      <c r="L15" s="69" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="69" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="68" t="s">
+      <c r="M16" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="68" t="s">
+      <c r="O16" s="69" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="J17" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="K17" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="68" t="s">
+      <c r="M17" s="69" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="69" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
@@ -2849,15 +2852,15 @@
       <c r="K18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="69" t="s">
+      <c r="M18" s="70" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="69" t="s">
         <v>54</v>
       </c>
       <c r="H19" t="s">
@@ -2869,66 +2872,66 @@
       <c r="K19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="69" t="s">
+      <c r="M19" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="69"/>
+      <c r="O19" s="70"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="69" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="69" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="69" t="s">
         <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="68" t="s">
+      <c r="K21" s="69" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="68" t="s">
+      <c r="L22" s="69" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="68" t="s">
+      <c r="G23" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="69" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="69" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="s">
@@ -2936,13 +2939,13 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="68" t="s">
+      <c r="F25" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="69" t="s">
         <v>14</v>
       </c>
       <c r="L25" t="s">
@@ -2950,32 +2953,32 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="68" t="s">
+      <c r="L26" s="69" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="69" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="68" t="s">
+      <c r="B28" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="69" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
@@ -2986,21 +2989,21 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="68">
+      <c r="K29" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="69" t="s">
         <v>38</v>
       </c>
       <c r="K30" t="s">
@@ -3008,158 +3011,158 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="68" t="s">
+      <c r="J31" s="69" t="s">
         <v>68</v>
       </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="69">
         <v>1</v>
       </c>
-      <c r="J32" s="68">
+      <c r="J32" s="69">
         <v>1</v>
       </c>
-      <c r="M32" s="68" t="s">
+      <c r="M32" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="68" t="s">
+      <c r="N32" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="68" t="s">
+      <c r="O32" s="69" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="69" t="s">
+      <c r="J33" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="69" t="s">
+      <c r="M33" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="68" t="s">
+      <c r="N33" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="69" t="s">
+      <c r="O33" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="69" t="s">
+      <c r="J34" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="69" t="s">
+      <c r="M34" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="69" t="s">
+      <c r="N34" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="69" t="s">
+      <c r="O34" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="3:16">
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="68" t="s">
+      <c r="N35" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="68" t="s">
+      <c r="P35" s="69" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="7:16">
-      <c r="G36" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="P36" s="68" t="s">
+      <c r="G36" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="7:14">
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="69" t="s">
+      <c r="N38" s="70" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="7:16">
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="69"/>
-      <c r="P39" s="69" t="s">
+      <c r="N39" s="70"/>
+      <c r="P39" s="70" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="6:14">
-      <c r="F40" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="68" t="s">
+      <c r="F40" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="68" t="s">
+      <c r="N40" s="69" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="7:14">
-      <c r="G41" s="68" t="s">
+      <c r="G41" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="68" t="s">
+      <c r="N41" s="69" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3201,1381 +3204,1381 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.775" style="48" customWidth="1"/>
-    <col min="2" max="2" width="7" style="48" customWidth="1"/>
-    <col min="3" max="4" width="11" style="48" customWidth="1"/>
-    <col min="5" max="6" width="9.66666666666667" style="48" customWidth="1"/>
-    <col min="7" max="7" width="11" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12.4416666666667" style="48" customWidth="1"/>
-    <col min="9" max="10" width="11" style="48" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" style="48" customWidth="1"/>
-    <col min="12" max="14" width="11" style="48" customWidth="1"/>
-    <col min="15" max="15" width="7" style="48" customWidth="1"/>
-    <col min="16" max="16" width="8.33333333333333" style="48" customWidth="1"/>
-    <col min="17" max="17" width="9.66666666666667" style="48" customWidth="1"/>
-    <col min="18" max="18" width="8.33333333333333" style="48" customWidth="1"/>
-    <col min="19" max="19" width="8.10833333333333" style="48" customWidth="1"/>
-    <col min="20" max="20" width="12.4416666666667" style="48" customWidth="1"/>
-    <col min="21" max="21" width="9" style="48"/>
-    <col min="22" max="22" width="9.66666666666667" style="48" customWidth="1"/>
-    <col min="23" max="24" width="7" style="48" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="48"/>
+    <col min="1" max="1" width="5.775" style="49" customWidth="1"/>
+    <col min="2" max="2" width="7" style="49" customWidth="1"/>
+    <col min="3" max="4" width="11" style="49" customWidth="1"/>
+    <col min="5" max="6" width="9.66666666666667" style="49" customWidth="1"/>
+    <col min="7" max="7" width="11" style="49" customWidth="1"/>
+    <col min="8" max="8" width="12.4416666666667" style="49" customWidth="1"/>
+    <col min="9" max="10" width="11" style="49" customWidth="1"/>
+    <col min="11" max="11" width="9.66666666666667" style="49" customWidth="1"/>
+    <col min="12" max="14" width="11" style="49" customWidth="1"/>
+    <col min="15" max="15" width="7" style="49" customWidth="1"/>
+    <col min="16" max="16" width="8.33333333333333" style="49" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" style="49" customWidth="1"/>
+    <col min="18" max="18" width="8.33333333333333" style="49" customWidth="1"/>
+    <col min="19" max="19" width="8.10833333333333" style="49" customWidth="1"/>
+    <col min="20" max="20" width="12.4416666666667" style="49" customWidth="1"/>
+    <col min="21" max="21" width="9" style="49"/>
+    <col min="22" max="22" width="9.66666666666667" style="49" customWidth="1"/>
+    <col min="23" max="24" width="7" style="49" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="59">
+      <c r="O1" s="60">
         <v>0</v>
       </c>
-      <c r="P1" s="59">
+      <c r="P1" s="60">
         <v>1</v>
       </c>
-      <c r="Q1" s="59">
+      <c r="Q1" s="60">
         <v>2</v>
       </c>
-      <c r="R1" s="64">
+      <c r="R1" s="65">
         <v>3</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="48">
+      <c r="V1" s="49">
         <v>0</v>
       </c>
-      <c r="W1" s="48">
+      <c r="W1" s="49">
         <v>1</v>
       </c>
-      <c r="X1" s="48">
+      <c r="X1" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="48" t="s">
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="66" t="s">
+      <c r="W2" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="66" t="s">
+      <c r="X2" s="67" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="65"/>
+      <c r="C3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="66"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="65"/>
+      <c r="C4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="66"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="65"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="66"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52" t="s">
+      <c r="K6" s="53"/>
+      <c r="L6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="65"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="66"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49" t="s">
+      <c r="L7" s="50"/>
+      <c r="M7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="65"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="66"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49" t="s">
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="65"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49" t="s">
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="65"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49" t="s">
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="65"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="66"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49" t="s">
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="65"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="66"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="62" t="s">
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="48" t="s">
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="V12" s="48" t="s">
+      <c r="V12" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="67" t="s">
+      <c r="W12" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="X12" s="66" t="s">
+      <c r="X12" s="67" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="62" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="48" t="s">
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="V13" s="48" t="s">
+      <c r="V13" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="66" t="s">
+      <c r="W13" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="X13" s="66" t="s">
+      <c r="X13" s="67" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="63" t="s">
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="65"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="66"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="63" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="65"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="66"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="49" t="s">
+      <c r="H16" s="58"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="65"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="66"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="49" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="65"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="66"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54">
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55">
         <v>31</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54" t="s">
+      <c r="K18" s="55"/>
+      <c r="L18" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="60" t="s">
+      <c r="M18" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="60" t="s">
+      <c r="N18" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="60" t="s">
+      <c r="O18" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="60" t="s">
+      <c r="P18" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="Q18" s="60">
+      <c r="Q18" s="61">
         <v>31</v>
       </c>
-      <c r="R18" s="61"/>
-      <c r="S18" s="65"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="66"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54" t="s">
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="63" t="s">
+      <c r="M19" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="49" t="s">
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="62" t="s">
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="T21" s="48" t="s">
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="T21" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="V21" s="66" t="s">
+      <c r="V21" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="W21" s="66" t="s">
+      <c r="W21" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="X21" s="66" t="s">
+      <c r="X21" s="67" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="60" t="s">
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="60" t="s">
+      <c r="N22" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="O22" s="62" t="s">
+      <c r="O22" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="60" t="s">
+      <c r="P22" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="T22" s="48" t="s">
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="T22" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="V22" s="66" t="s">
+      <c r="V22" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="W22" s="66" t="s">
+      <c r="W22" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="X22" s="66" t="s">
+      <c r="X22" s="67" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="61" t="s">
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="56"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="61" t="s">
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="56"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="63" t="s">
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="56"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="54" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54" t="s">
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="M26" s="49" t="s">
+      <c r="M26" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="56"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="49" t="s">
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="58"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="M28" s="61" t="s">
+      <c r="M28" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49" t="s">
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="50"/>
+      <c r="D30" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="62" t="s">
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="49" t="s">
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="56"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="49" t="s">
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="56"/>
-      <c r="B33" s="53" t="s">
+      <c r="A33" s="57"/>
+      <c r="B33" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54" t="s">
+      <c r="D33" s="55"/>
+      <c r="E33" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="49" t="s">
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="56"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="63" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="58"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54" t="s">
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="M35" s="61" t="s">
+      <c r="M35" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49" t="s">
+      <c r="D36" s="50"/>
+      <c r="E36" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49" t="s">
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49" t="s">
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49" t="s">
+      <c r="K37" s="50"/>
+      <c r="L37" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="60" t="s">
+      <c r="N37" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O37" s="60" t="s">
+      <c r="O37" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="Q37" s="60" t="s">
+      <c r="Q37" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="R37" s="60" t="s">
+      <c r="R37" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="S37" s="65"/>
+      <c r="S37" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4606,7 +4609,7 @@
       <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="5.775" customWidth="1"/>
@@ -4624,1210 +4627,1210 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="3:22">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="45">
+      <c r="O1" s="46">
         <v>0</v>
       </c>
-      <c r="P1" s="45">
+      <c r="P1" s="46">
         <v>1</v>
       </c>
-      <c r="Q1" s="45">
+      <c r="Q1" s="46">
         <v>2</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="33" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" ht="23.25" spans="1:22">
-      <c r="A2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="V2" s="36"/>
     </row>
     <row r="3" ht="17.25" spans="1:22">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="V3" s="36" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="V3" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:22">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="V4" s="36" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="V4" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="23.25" spans="1:22">
-      <c r="A5" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:22">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="V6" s="39" t="s">
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="V6" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="39" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="V7" s="39" t="s">
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="V7" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="V8" s="36" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="V8" s="37" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A9" s="44"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36" t="s">
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="V9" s="35"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="V9" s="36"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:22">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="V10" s="35"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="V10" s="36"/>
     </row>
     <row r="11" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36" t="s">
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="V11" s="35"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="V11" s="36"/>
     </row>
     <row r="12" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A12" s="44"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36" t="s">
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="V12" s="35"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="V12" s="36"/>
     </row>
     <row r="13" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36" t="s">
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="V13" s="35"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="V13" s="36"/>
     </row>
     <row r="14" ht="51" customHeight="1" spans="1:22">
-      <c r="A14" s="44"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36" t="s">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="V14" s="35"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="V14" s="36"/>
     </row>
     <row r="15" ht="23.25" spans="1:22">
-      <c r="A15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="39" t="s">
+      <c r="A15" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="V15" s="39" t="s">
+      <c r="L15" s="42"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="V15" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" ht="23.25" spans="1:22">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="39" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39" t="s">
+      <c r="K16" s="40"/>
+      <c r="L16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="V16" s="39" t="s">
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="V16" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" ht="23.25" spans="1:22">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="39" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="39" t="s">
+      <c r="K17" s="40"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="V17" s="39" t="s">
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="V17" s="40" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" ht="23.25" spans="1:22">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="39" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="V18" s="41"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="V18" s="42"/>
     </row>
     <row r="19" ht="23.25" spans="1:22">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="39" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="39" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="V19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="V19" s="42"/>
     </row>
     <row r="20" ht="23.25" spans="1:22">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="39" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="39" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="M20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="V20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="V20" s="42"/>
     </row>
     <row r="21" ht="23.25" spans="1:22">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="V21" s="35"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="V21" s="36"/>
     </row>
     <row r="22" ht="23.25" spans="1:22">
-      <c r="A22" s="44"/>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36" t="s">
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="36" t="s">
+      <c r="M22" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="36" t="s">
+      <c r="N22" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="36" t="s">
+      <c r="O22" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="36" t="s">
+      <c r="P22" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="Q22" s="35"/>
-      <c r="V22" s="35"/>
+      <c r="Q22" s="36"/>
+      <c r="V22" s="36"/>
     </row>
     <row r="23" ht="23.25" spans="1:22">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="39" t="s">
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39" t="s">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="V23" s="39" t="s">
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="V23" s="40" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24" ht="23.25" spans="1:22">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="39" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="39" t="s">
+      <c r="K24" s="40"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="V24" s="39" t="s">
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="V24" s="40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" ht="23.25" spans="1:22">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="39" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="39" t="s">
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="V25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="V25" s="42"/>
     </row>
     <row r="26" ht="23.25" spans="1:22">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="39" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="39" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="V26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="V26" s="42"/>
     </row>
     <row r="27" ht="23.25" spans="1:22">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36" t="s">
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="V27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="V27" s="36"/>
     </row>
     <row r="28" ht="23.25" spans="1:22">
-      <c r="A28" s="44"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36" t="s">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="V28" s="35"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="V28" s="36"/>
     </row>
     <row r="29" ht="23.25" spans="1:22">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="39" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="39" t="s">
+      <c r="D29" s="42"/>
+      <c r="E29" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="39" t="s">
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39" t="s">
+      <c r="K29" s="40"/>
+      <c r="L29" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="V29" s="39" t="s">
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="V29" s="40" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" ht="23.25" spans="1:22">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="39" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="39" t="s">
+      <c r="K30" s="40"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="V30" s="39" t="s">
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="V30" s="40" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" ht="23.25" spans="1:22">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="39" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="39" t="s">
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="V31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="V31" s="42"/>
     </row>
     <row r="32" ht="23.25" spans="1:22">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="39" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="39" t="s">
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="V32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="V32" s="42"/>
     </row>
     <row r="33" ht="23.25" spans="1:22">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36" t="s">
+      <c r="D33" s="36"/>
+      <c r="E33" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36" t="s">
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36" t="s">
+      <c r="K33" s="37"/>
+      <c r="L33" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="M33" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="N33" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="P33" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="Q33" s="36" t="s">
+      <c r="Q33" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="V33" s="36" t="s">
+      <c r="V33" s="37" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="34" ht="23.25" spans="1:22">
-      <c r="A34" s="44"/>
-      <c r="B34" s="43" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36" t="s">
+      <c r="D34" s="36"/>
+      <c r="E34" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36" t="s">
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36" t="s">
+      <c r="K34" s="37"/>
+      <c r="L34" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="M34" s="36" t="s">
+      <c r="M34" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="N34" s="36" t="s">
+      <c r="N34" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="O34" s="36" t="s">
+      <c r="O34" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="P34" s="36" t="s">
+      <c r="P34" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="Q34" s="36" t="s">
+      <c r="Q34" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="V34" s="36" t="s">
+      <c r="V34" s="37" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5857,412 +5860,412 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="18" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.1083333333333" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8" style="18" customWidth="1"/>
-    <col min="4" max="5" width="9.55833333333333" style="18" customWidth="1"/>
-    <col min="6" max="7" width="8" style="18" customWidth="1"/>
-    <col min="8" max="9" width="9.55833333333333" style="18" customWidth="1"/>
-    <col min="10" max="11" width="8" style="18" customWidth="1"/>
-    <col min="12" max="13" width="9.55833333333333" style="18" customWidth="1"/>
-    <col min="14" max="14" width="8" style="18" customWidth="1"/>
-    <col min="15" max="16384" width="8.88333333333333" style="18"/>
+    <col min="1" max="1" width="18" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.1083333333333" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8" style="19" customWidth="1"/>
+    <col min="4" max="5" width="9.55833333333333" style="19" customWidth="1"/>
+    <col min="6" max="7" width="8" style="19" customWidth="1"/>
+    <col min="8" max="9" width="9.55833333333333" style="19" customWidth="1"/>
+    <col min="10" max="11" width="8" style="19" customWidth="1"/>
+    <col min="12" max="13" width="9.55833333333333" style="19" customWidth="1"/>
+    <col min="14" max="14" width="8" style="19" customWidth="1"/>
+    <col min="15" max="16384" width="8.88333333333333" style="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.6" customHeight="1" spans="1:14">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="29" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:14">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="23" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" ht="20.25" spans="1:14">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="24" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:14">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="25">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="19" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:14">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="19" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="6" ht="20.25" spans="1:14">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="25">
         <v>1</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="7" ht="20.25" spans="1:14">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="25">
         <v>1</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="19" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="8" ht="20.25" spans="1:14">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="25">
         <v>1</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="19" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" ht="20.25" spans="1:14">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="19" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6286,29 +6289,30 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="1" customWidth="1"/>
     <col min="14" max="16383" width="8.88333333333333" style="1"/>
     <col min="16384" max="16384" width="8.88333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:13">
+    <row r="1" ht="23.25" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6325,9 +6329,9 @@
       </c>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" ht="23.25" spans="1:13">
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" ht="24" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6344,9 +6348,9 @@
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" ht="23.25" spans="1:13">
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" ht="24" spans="1:13">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6362,20 +6366,20 @@
       <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="23.25" spans="1:13">
+    <row r="4" ht="24" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>198</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" ht="20.25" spans="1:13">
+    <row r="5" ht="21.75" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>201</v>
       </c>
@@ -6435,7 +6439,7 @@
       <c r="H5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="4" t="s">
         <v>205</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -6447,7 +6451,7 @@
       <c r="L5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6474,7 +6478,7 @@
       <c r="H6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="4" t="s">
         <v>205</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -6486,11 +6490,11 @@
       <c r="L6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" ht="20.25" spans="1:13">
+    <row r="7" ht="21.75" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>209</v>
       </c>
@@ -6515,7 +6519,7 @@
       <c r="H7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="4" t="s">
         <v>205</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -6527,7 +6531,7 @@
       <c r="L7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6554,7 +6558,7 @@
       <c r="H8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="4" t="s">
         <v>205</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -6566,7 +6570,7 @@
       <c r="L8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6601,11 +6605,11 @@
       <c r="L9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" ht="21" spans="1:13">
+    <row r="10" ht="21.75" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6618,19 +6622,19 @@
       <c r="F10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="13">
         <v>3</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="H10" s="14"/>
+      <c r="I10" s="4">
         <v>4</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <v>1</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15">
+      <c r="K10" s="16"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="4">
         <v>2</v>
       </c>
     </row>
@@ -6643,17 +6647,6 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="J10:L10"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" display="PC4@M+4"/>
-    <hyperlink ref="I6" r:id="rId1" display="PC4@M+4"/>
-    <hyperlink ref="I7" r:id="rId1" display="PC4@M+4"/>
-    <hyperlink ref="I8" r:id="rId1" display="PC4@M+4"/>
-    <hyperlink ref="M5" r:id="rId2" display="PC4@W+4"/>
-    <hyperlink ref="M6" r:id="rId2" display="PC4@W+4"/>
-    <hyperlink ref="M7" r:id="rId2" display="PC4@W+4"/>
-    <hyperlink ref="M8" r:id="rId2" display="PC4@W+4"/>
-    <hyperlink ref="M9" r:id="rId2" display="PC4@W+4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/P5_CPU/流水线分析.xlsx
+++ b/P5_CPU/流水线分析.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chao4\Desktop\Verilog\P5_CPU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="226">
   <si>
     <t>addu</t>
   </si>
@@ -475,7 +480,7 @@
         <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>RF</t>
     </r>
@@ -519,7 +524,7 @@
         <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>ALU</t>
     </r>
@@ -575,7 +580,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">D </t>
     </r>
@@ -767,7 +772,7 @@
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>MUX</t>
     </r>
@@ -790,23 +795,21 @@
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
+  </si>
+  <si>
+    <t>PC4@W+4</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,36 +827,36 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -866,38 +869,38 @@
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
@@ -908,149 +911,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,194 +978,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1535,255 +1222,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1802,26 +1250,209 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1829,233 +1460,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2313,534 +1736,534 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33333333333333" style="69" customWidth="1"/>
-    <col min="2" max="3" width="6.33333333333333" style="69" customWidth="1"/>
-    <col min="4" max="5" width="9" style="69"/>
-    <col min="6" max="6" width="4.33333333333333" style="69" customWidth="1"/>
-    <col min="7" max="7" width="7.33333333333333" style="69" customWidth="1"/>
-    <col min="8" max="9" width="8.33333333333333" style="69" customWidth="1"/>
-    <col min="10" max="15" width="11.4416666666667" style="69" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="69"/>
+    <col min="1" max="1" width="4.33203125" style="49" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" style="49" customWidth="1"/>
+    <col min="4" max="5" width="9" style="49"/>
+    <col min="6" max="6" width="4.33203125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="49" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" style="49" customWidth="1"/>
+    <col min="10" max="15" width="11.44140625" style="49" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:17">
-      <c r="H1" s="69" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="69" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="69" t="s">
+      <c r="H2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="49">
         <v>1</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="49">
         <v>1</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="49">
         <v>1</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="49">
         <v>1</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="49">
         <v>1</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="49">
         <v>1</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="49">
         <v>1</v>
       </c>
-      <c r="O3" s="69">
+      <c r="O3" s="49">
         <v>1</v>
       </c>
-      <c r="P3" s="69">
+      <c r="P3" s="49">
         <v>1</v>
       </c>
-      <c r="Q3" s="69">
+      <c r="Q3" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="69" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="69" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:17">
-      <c r="C6" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="69" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="69" t="s">
+      <c r="Q6" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="69" t="s">
+      <c r="F7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="49">
         <v>1</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="49">
         <v>1</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="49">
         <v>1</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="49">
         <v>1</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="49">
         <v>1</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="49">
         <v>1</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="49">
         <v>1</v>
       </c>
-      <c r="O7" s="69">
+      <c r="O7" s="49">
         <v>1</v>
       </c>
-      <c r="P7" s="69">
+      <c r="P7" s="49">
         <v>1</v>
       </c>
-      <c r="Q7" s="69">
+      <c r="Q7" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="69" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="69" t="s">
+      <c r="M8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="69" t="s">
+      <c r="N8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="69" t="s">
+      <c r="O8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:16">
-      <c r="C9" s="69" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="69" t="s">
+      <c r="M9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="69" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="69" t="s">
+      <c r="P11" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="69" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="69" t="s">
+      <c r="M12" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="69" t="s">
+      <c r="O12" s="49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="69" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="71" t="s">
+      <c r="M13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="71" t="s">
+      <c r="O13" s="51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="69" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="69" t="s">
+      <c r="M14" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="69" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:15">
-      <c r="C16" s="69" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="49" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="69" t="s">
+      <c r="J16" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="69" t="s">
+      <c r="M16" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="69" t="s">
+      <c r="O16" s="49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="69" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H17" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="69" t="s">
+      <c r="K17" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="69" t="s">
+      <c r="M17" s="49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="69" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="49" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
@@ -2852,15 +2275,15 @@
       <c r="K18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="70" t="s">
+      <c r="M18" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="69" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="49" t="s">
         <v>54</v>
       </c>
       <c r="H19" t="s">
@@ -2872,113 +2295,113 @@
       <c r="K19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="70" t="s">
+      <c r="M19" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="70"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="69" t="s">
+      <c r="O19" s="50"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="69" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
         <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="69" t="s">
+      <c r="K21" s="49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="69" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="69" t="s">
+      <c r="G22" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="69" t="s">
+      <c r="L22" s="49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="69" t="s">
+      <c r="G23" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="69" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="49" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="69" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="69" t="s">
+      <c r="F25" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="49" t="s">
         <v>14</v>
       </c>
       <c r="L25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="69" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="69" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="69" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="49" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
@@ -2988,3284 +2411,3280 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="69" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="69">
+      <c r="K29" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="69" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="49" t="s">
         <v>38</v>
       </c>
       <c r="K30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="69" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="69" t="s">
+      <c r="J31" s="49" t="s">
         <v>68</v>
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="3:15">
-      <c r="C32" s="69" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="69" t="s">
+      <c r="G32" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="49">
         <v>1</v>
       </c>
-      <c r="J32" s="69">
+      <c r="J32" s="49">
         <v>1</v>
       </c>
-      <c r="M32" s="69" t="s">
+      <c r="M32" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="69" t="s">
+      <c r="N32" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="69" t="s">
+      <c r="O32" s="49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="69" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="69" t="s">
+      <c r="G33" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="70" t="s">
+      <c r="J33" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="70" t="s">
+      <c r="M33" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="69" t="s">
+      <c r="N33" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="70" t="s">
+      <c r="O33" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="69" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="70" t="s">
+      <c r="J34" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="70" t="s">
+      <c r="M34" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="70" t="s">
+      <c r="N34" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="70" t="s">
+      <c r="O34" s="50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="3:16">
-      <c r="C35" s="69" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="69" t="s">
+      <c r="N35" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="69" t="s">
+      <c r="P35" s="49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="7:16">
-      <c r="G36" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="P36" s="69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="69" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G36" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G37" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="7:14">
-      <c r="G38" s="69" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G38" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="70" t="s">
+      <c r="N38" s="50" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="7:16">
-      <c r="G39" s="69" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G39" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="70"/>
-      <c r="P39" s="70" t="s">
+      <c r="N39" s="50"/>
+      <c r="P39" s="50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="6:14">
-      <c r="F40" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="69" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="69" t="s">
+      <c r="N40" s="49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="7:14">
-      <c r="G41" s="69" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G41" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="69" t="s">
+      <c r="N41" s="49" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1" display="IR@D[15:0]"/>
-    <hyperlink ref="K13" r:id="rId1" display="IR@D[15:0]"/>
-    <hyperlink ref="M13" r:id="rId1" display="IR@D[15:0]"/>
-    <hyperlink ref="M18" r:id="rId2" display="A@D"/>
-    <hyperlink ref="M19" r:id="rId3" display="ER@D"/>
-    <hyperlink ref="H33" r:id="rId4" display="rd@W"/>
-    <hyperlink ref="J33" r:id="rId5" display="rt@W"/>
-    <hyperlink ref="M33" r:id="rId5" display="rt@W"/>
-    <hyperlink ref="M34" r:id="rId6" display="ALUC@W"/>
-    <hyperlink ref="N34" r:id="rId7" display="PC@W"/>
-    <hyperlink ref="H34" r:id="rId8" display="C@W"/>
-    <hyperlink ref="G31" r:id="rId9" display="DMDO@W"/>
-    <hyperlink ref="J34" r:id="rId9" display="DMDO@W"/>
-    <hyperlink ref="N38" r:id="rId10" display="IR@W[25:0]" tooltip="mailto:IR@W[25:0]"/>
-    <hyperlink ref="O34" r:id="rId11" display="ER@W"/>
-    <hyperlink ref="O33" r:id="rId5" display="rt@W"/>
-    <hyperlink ref="O13" r:id="rId1" display="IR@D[15:0]"/>
-    <hyperlink ref="G11" r:id="rId12" display="JR@D"/>
-    <hyperlink ref="P39" r:id="rId13" display="JR@W"/>
+    <hyperlink ref="J13" r:id="rId1"/>
+    <hyperlink ref="K13" r:id="rId2"/>
+    <hyperlink ref="M13" r:id="rId3"/>
+    <hyperlink ref="M18" r:id="rId4"/>
+    <hyperlink ref="M19" r:id="rId5"/>
+    <hyperlink ref="H33" r:id="rId6"/>
+    <hyperlink ref="J33" r:id="rId7"/>
+    <hyperlink ref="M33" r:id="rId8"/>
+    <hyperlink ref="M34" r:id="rId9"/>
+    <hyperlink ref="N34" r:id="rId10"/>
+    <hyperlink ref="H34" r:id="rId11"/>
+    <hyperlink ref="G31" r:id="rId12"/>
+    <hyperlink ref="J34" r:id="rId13"/>
+    <hyperlink ref="N38" r:id="rId14" tooltip="mailto:IR@W[25:0]"/>
+    <hyperlink ref="O34" r:id="rId15"/>
+    <hyperlink ref="O33" r:id="rId16"/>
+    <hyperlink ref="O13" r:id="rId17"/>
+    <hyperlink ref="G11" r:id="rId18"/>
+    <hyperlink ref="P39" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.775" style="49" customWidth="1"/>
-    <col min="2" max="2" width="7" style="49" customWidth="1"/>
-    <col min="3" max="4" width="11" style="49" customWidth="1"/>
-    <col min="5" max="6" width="9.66666666666667" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11" style="49" customWidth="1"/>
-    <col min="8" max="8" width="12.4416666666667" style="49" customWidth="1"/>
-    <col min="9" max="10" width="11" style="49" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" style="49" customWidth="1"/>
-    <col min="12" max="14" width="11" style="49" customWidth="1"/>
-    <col min="15" max="15" width="7" style="49" customWidth="1"/>
-    <col min="16" max="16" width="8.33333333333333" style="49" customWidth="1"/>
-    <col min="17" max="17" width="9.66666666666667" style="49" customWidth="1"/>
-    <col min="18" max="18" width="8.33333333333333" style="49" customWidth="1"/>
-    <col min="19" max="19" width="8.10833333333333" style="49" customWidth="1"/>
-    <col min="20" max="20" width="12.4416666666667" style="49" customWidth="1"/>
-    <col min="21" max="21" width="9" style="49"/>
-    <col min="22" max="22" width="9.66666666666667" style="49" customWidth="1"/>
-    <col min="23" max="24" width="7" style="49" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="5.77734375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7" style="32" customWidth="1"/>
+    <col min="3" max="4" width="11" style="32" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="11" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="32" customWidth="1"/>
+    <col min="9" max="10" width="11" style="32" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="32" customWidth="1"/>
+    <col min="12" max="14" width="11" style="32" customWidth="1"/>
+    <col min="15" max="15" width="7" style="32" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="32" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="32" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="32" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" style="32" customWidth="1"/>
+    <col min="21" max="21" width="9" style="32"/>
+    <col min="22" max="22" width="9.6640625" style="32" customWidth="1"/>
+    <col min="23" max="24" width="7" style="32" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="60">
+      <c r="O1" s="40">
         <v>0</v>
       </c>
-      <c r="P1" s="60">
+      <c r="P1" s="40">
         <v>1</v>
       </c>
-      <c r="Q1" s="60">
+      <c r="Q1" s="40">
         <v>2</v>
       </c>
-      <c r="R1" s="65">
+      <c r="R1" s="45">
         <v>3</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65" t="s">
+      <c r="S1" s="45"/>
+      <c r="T1" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="32">
         <v>0</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="32">
         <v>1</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="50" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="62"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="49" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="67" t="s">
+      <c r="W2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="67" t="s">
+      <c r="X2" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="66"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51" t="s">
+      <c r="C3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="46"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="66"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="C4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="46"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="66"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="46"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53" t="s">
+      <c r="K6" s="36"/>
+      <c r="L6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="66"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="51" t="s">
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="46"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50" t="s">
+      <c r="L7" s="33"/>
+      <c r="M7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="66"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51" t="s">
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="46"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="66"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="51" t="s">
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="46"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="50" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="66"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="51" t="s">
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="46"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50" t="s">
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="66"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51" t="s">
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="46"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50" t="s">
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="66"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="51" t="s">
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="46"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="63" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="49" t="s">
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="V12" s="49" t="s">
+      <c r="V12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="68" t="s">
+      <c r="W12" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="X12" s="67" t="s">
+      <c r="X12" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="63" t="s">
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="49" t="s">
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="V13" s="49" t="s">
+      <c r="V13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="67" t="s">
+      <c r="W13" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="X13" s="67" t="s">
+      <c r="X13" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="64" t="s">
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="66"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="46"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="64" t="s">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="66"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="46"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="50" t="s">
+      <c r="H16" s="39"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="66"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="46"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="50" t="s">
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="66"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="46"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55">
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38">
         <v>31</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55" t="s">
+      <c r="K18" s="38"/>
+      <c r="L18" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="61" t="s">
+      <c r="M18" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="61" t="s">
+      <c r="N18" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="61" t="s">
+      <c r="O18" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="Q18" s="61">
+      <c r="Q18" s="41">
         <v>31</v>
       </c>
-      <c r="R18" s="62"/>
-      <c r="S18" s="66"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="R18" s="42"/>
+      <c r="S18" s="46"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="64" t="s">
+      <c r="M19" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="50" t="s">
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="51" t="s">
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="63" t="s">
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="T21" s="49" t="s">
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="T21" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="V21" s="67" t="s">
+      <c r="V21" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="W21" s="67" t="s">
+      <c r="W21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="X21" s="67" t="s">
+      <c r="X21" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="61" t="s">
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="61" t="s">
+      <c r="N22" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="O22" s="63" t="s">
+      <c r="O22" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="61" t="s">
+      <c r="P22" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="T22" s="49" t="s">
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="T22" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="V22" s="67" t="s">
+      <c r="V22" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="W22" s="67" t="s">
+      <c r="W22" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="X22" s="67" t="s">
+      <c r="X22" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="62" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="57"/>
-      <c r="B24" s="54" t="s">
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="62" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="57"/>
-      <c r="B25" s="54" t="s">
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="64" t="s">
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="57"/>
-      <c r="B26" s="54" t="s">
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="55" t="s">
+      <c r="D26" s="39"/>
+      <c r="E26" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55" t="s">
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="M26" s="50" t="s">
+      <c r="M26" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="57"/>
-      <c r="B27" s="54" t="s">
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="50" t="s">
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="59"/>
-      <c r="B28" s="54" t="s">
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="M28" s="62" t="s">
+      <c r="M28" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="51" t="s">
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50" t="s">
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51" t="s">
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="63" t="s">
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="56" t="s">
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="50" t="s">
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="57"/>
-      <c r="B32" s="54" t="s">
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="50" t="s">
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="57"/>
-      <c r="B33" s="54" t="s">
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="50" t="s">
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="57"/>
-      <c r="B34" s="54" t="s">
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="64" t="s">
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="59"/>
-      <c r="B35" s="54" t="s">
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="M35" s="62" t="s">
+      <c r="M35" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="51" t="s">
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50" t="s">
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51" t="s">
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50" t="s">
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50" t="s">
+      <c r="K37" s="33"/>
+      <c r="L37" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="61" t="s">
+      <c r="M37" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="61" t="s">
+      <c r="N37" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="O37" s="61" t="s">
+      <c r="O37" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="P37" s="61" t="s">
+      <c r="P37" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="Q37" s="61" t="s">
+      <c r="Q37" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="R37" s="61" t="s">
+      <c r="R37" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="S37" s="66"/>
+      <c r="S37" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="5.775" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="12.2166666666667" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" customWidth="1"/>
     <col min="7" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.5583333333333" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="8.55833333333333" customWidth="1"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="16" max="16" width="12.2166666666667" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="22" max="22" width="10.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="3:22">
-      <c r="C1" s="33" t="s">
+    <row r="1" spans="1:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="C1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="46">
+      <c r="O1" s="29">
         <v>0</v>
       </c>
-      <c r="P1" s="46">
+      <c r="P1" s="29">
         <v>1</v>
       </c>
-      <c r="Q1" s="46">
+      <c r="Q1" s="29">
         <v>2</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" ht="23.25" spans="1:22">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="V2" s="36"/>
-    </row>
-    <row r="3" ht="17.25" spans="1:22">
-      <c r="A3" s="34" t="s">
+    <row r="2" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="V3" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="1:22">
-      <c r="A4" s="34" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="V3" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="V4" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="23.25" spans="1:22">
-      <c r="A5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="V4" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="40" t="s">
+      <c r="V5" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:22">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="V6" s="40" t="s">
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="V6" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="40" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="V7" s="40" t="s">
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="V7" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="V8" s="37" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="V8" s="22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="V9" s="36"/>
-    </row>
-    <row r="10" ht="51" customHeight="1" spans="1:22">
-      <c r="A10" s="34" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="V9" s="21"/>
+    </row>
+    <row r="10" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="V10" s="36"/>
-    </row>
-    <row r="11" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A11" s="43" t="s">
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="V10" s="21"/>
+    </row>
+    <row r="11" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="V11" s="36"/>
-    </row>
-    <row r="12" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A12" s="45"/>
-      <c r="B12" s="44" t="s">
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="V11" s="21"/>
+    </row>
+    <row r="12" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="V12" s="36"/>
-    </row>
-    <row r="13" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A13" s="43" t="s">
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="V12" s="21"/>
+    </row>
+    <row r="13" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37" t="s">
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="V13" s="36"/>
-    </row>
-    <row r="14" ht="51" customHeight="1" spans="1:22">
-      <c r="A14" s="45"/>
-      <c r="B14" s="44" t="s">
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="V13" s="21"/>
+    </row>
+    <row r="14" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37" t="s">
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="V14" s="36"/>
-    </row>
-    <row r="15" ht="23.25" spans="1:22">
-      <c r="A15" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40" t="s">
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="V14" s="21"/>
+    </row>
+    <row r="15" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="V15" s="40" t="s">
+      <c r="L15" s="27"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="V15" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" ht="23.25" spans="1:22">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="40" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40" t="s">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="40" t="s">
+      <c r="M16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="V16" s="40" t="s">
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="V16" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" ht="23.25" spans="1:22">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="40" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="40" t="s">
+      <c r="K17" s="25"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="V17" s="40" t="s">
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="V17" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" ht="23.25" spans="1:22">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="40" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="V18" s="42"/>
-    </row>
-    <row r="19" ht="23.25" spans="1:22">
-      <c r="A19" s="38" t="s">
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="V18" s="27"/>
+    </row>
+    <row r="19" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="40" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="40" t="s">
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="V19" s="42"/>
-    </row>
-    <row r="20" ht="23.25" spans="1:22">
-      <c r="A20" s="38" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="V19" s="27"/>
+    </row>
+    <row r="20" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="40" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="40" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="40" t="s">
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="V20" s="42"/>
-    </row>
-    <row r="21" ht="23.25" spans="1:22">
-      <c r="A21" s="43" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="V20" s="27"/>
+    </row>
+    <row r="21" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="V21" s="36"/>
-    </row>
-    <row r="22" ht="23.25" spans="1:22">
-      <c r="A22" s="45"/>
-      <c r="B22" s="44" t="s">
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="V21" s="21"/>
+    </row>
+    <row r="22" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="37" t="s">
+      <c r="P22" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="Q22" s="36"/>
-      <c r="V22" s="36"/>
-    </row>
-    <row r="23" ht="23.25" spans="1:22">
-      <c r="A23" s="38" t="s">
+      <c r="Q22" s="21"/>
+      <c r="V22" s="21"/>
+    </row>
+    <row r="23" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="40" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40" t="s">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="V23" s="40" t="s">
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="V23" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" ht="23.25" spans="1:22">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="40" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="40" t="s">
+      <c r="K24" s="25"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="V24" s="40" t="s">
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="V24" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" ht="23.25" spans="1:22">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="40" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="40" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="V25" s="42"/>
-    </row>
-    <row r="26" ht="23.25" spans="1:22">
-      <c r="A26" s="38" t="s">
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="V25" s="27"/>
+    </row>
+    <row r="26" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="40" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="40" t="s">
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="V26" s="42"/>
-    </row>
-    <row r="27" ht="23.25" spans="1:22">
-      <c r="A27" s="43" t="s">
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="V26" s="27"/>
+    </row>
+    <row r="27" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="V27" s="36"/>
-    </row>
-    <row r="28" ht="23.25" spans="1:22">
-      <c r="A28" s="45"/>
-      <c r="B28" s="44" t="s">
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="V27" s="21"/>
+    </row>
+    <row r="28" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="V28" s="36"/>
-    </row>
-    <row r="29" ht="23.25" spans="1:22">
-      <c r="A29" s="38" t="s">
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="V28" s="21"/>
+    </row>
+    <row r="29" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="40" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="40" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="40" t="s">
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40" t="s">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="40" t="s">
+      <c r="M29" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="V29" s="40" t="s">
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="V29" s="25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" ht="23.25" spans="1:22">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="40" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="40" t="s">
+      <c r="K30" s="25"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="V30" s="40" t="s">
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="V30" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" ht="23.25" spans="1:22">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="40" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="40" t="s">
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="40" t="s">
+      <c r="M31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="V31" s="42"/>
-    </row>
-    <row r="32" ht="23.25" spans="1:22">
-      <c r="A32" s="38" t="s">
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="V31" s="27"/>
+    </row>
+    <row r="32" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="40" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="40" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="V32" s="42"/>
-    </row>
-    <row r="33" ht="23.25" spans="1:22">
-      <c r="A33" s="43" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="V32" s="27"/>
+    </row>
+    <row r="33" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37" t="s">
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37" t="s">
+      <c r="K33" s="22"/>
+      <c r="L33" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="M33" s="37" t="s">
+      <c r="M33" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="O33" s="37" t="s">
+      <c r="O33" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="P33" s="37" t="s">
+      <c r="P33" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q33" s="37" t="s">
+      <c r="Q33" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="V33" s="37" t="s">
+      <c r="V33" s="22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" ht="23.25" spans="1:22">
-      <c r="A34" s="45"/>
-      <c r="B34" s="44" t="s">
+    <row r="34" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="59"/>
+      <c r="B34" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37" t="s">
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37" t="s">
+      <c r="K34" s="22"/>
+      <c r="L34" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="M34" s="37" t="s">
+      <c r="M34" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="N34" s="37" t="s">
+      <c r="N34" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O34" s="37" t="s">
+      <c r="O34" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="Q34" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="V34" s="37" t="s">
+      <c r="Q34" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="V34" s="22" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.1083333333333" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8" style="19" customWidth="1"/>
-    <col min="4" max="5" width="9.55833333333333" style="19" customWidth="1"/>
-    <col min="6" max="7" width="8" style="19" customWidth="1"/>
-    <col min="8" max="9" width="9.55833333333333" style="19" customWidth="1"/>
-    <col min="10" max="11" width="8" style="19" customWidth="1"/>
-    <col min="12" max="13" width="9.55833333333333" style="19" customWidth="1"/>
-    <col min="14" max="14" width="8" style="19" customWidth="1"/>
-    <col min="15" max="16384" width="8.88333333333333" style="19"/>
+    <col min="1" max="1" width="18" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8" style="10" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" style="10" customWidth="1"/>
+    <col min="6" max="7" width="8" style="10" customWidth="1"/>
+    <col min="8" max="9" width="9.5546875" style="10" customWidth="1"/>
+    <col min="10" max="11" width="8" style="10" customWidth="1"/>
+    <col min="12" max="13" width="9.5546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="8" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" spans="1:14">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="20" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="30" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="1:14">
-      <c r="A2" s="23" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" ht="20.25" spans="1:14">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" ht="20.25" spans="1:14">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" ht="20.25" spans="1:14">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" ht="20.25" spans="1:14">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" ht="20.25" spans="1:14">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" ht="20.25" spans="1:14">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" ht="20.25" spans="1:14">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="19" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6279,107 +5698,106 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="1" customWidth="1"/>
-    <col min="14" max="16383" width="8.88333333333333" style="1"/>
-    <col min="16384" max="16384" width="8.88333333333333"/>
+    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16383" width="8.88671875" style="1"/>
+    <col min="16384" max="16384" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:13">
+    <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" ht="24" spans="1:13">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" ht="24" spans="1:13">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="24" spans="1:13">
+    <row r="4" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>198</v>
       </c>
@@ -6392,29 +5810,29 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" ht="21.75" spans="1:13">
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>201</v>
       </c>
@@ -6455,7 +5873,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" ht="23.25" spans="1:13">
+    <row r="6" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>29</v>
@@ -6494,7 +5912,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" ht="21.75" spans="1:13">
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>209</v>
       </c>
@@ -6535,7 +5953,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" ht="23.25" spans="1:13">
+    <row r="8" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
         <v>29</v>
@@ -6574,7 +5992,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" ht="23.25" spans="1:13">
+    <row r="9" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>194</v>
       </c>
@@ -6593,9 +6011,9 @@
       <c r="F9" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="4" t="s">
         <v>170</v>
       </c>
@@ -6609,7 +6027,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" ht="21.75" spans="1:13">
+    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6622,18 +6040,18 @@
       <c r="F10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="74">
         <v>3</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="4">
         <v>4</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="74">
         <v>1</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="75"/>
       <c r="M10" s="4">
         <v>2</v>
       </c>
@@ -6647,8 +6065,8 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="J10:L10"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/P5_CPU/流水线分析.xlsx
+++ b/P5_CPU/流水线分析.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chao4\Desktop\Verilog\P5_CPU\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="ATCode" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="230">
   <si>
     <t>addu</t>
   </si>
@@ -480,7 +476,7 @@
         <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>RF</t>
     </r>
@@ -524,7 +520,7 @@
         <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>ALU</t>
     </r>
@@ -575,12 +571,15 @@
     <t>WDSel</t>
   </si>
   <si>
+    <t>PC4@W+4</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D </t>
     </r>
@@ -638,25 +637,19 @@
     <t>load</t>
   </si>
   <si>
-    <t>1/rd</t>
+    <t>0/rd</t>
+  </si>
+  <si>
+    <t>0/rt</t>
   </si>
   <si>
     <t>1/rt</t>
   </si>
   <si>
-    <t>2/rt</t>
-  </si>
-  <si>
     <t>0/31</t>
   </si>
   <si>
-    <t>0/rd</t>
-  </si>
-  <si>
-    <t>0/rt</t>
-  </si>
-  <si>
-    <t>rs/rt</t>
+    <t>A1/A2</t>
   </si>
   <si>
     <t>S</t>
@@ -708,9 +701,6 @@
   </si>
   <si>
     <t>PC4@M+4</t>
-  </si>
-  <si>
-    <t>PC4@W+4</t>
   </si>
   <si>
     <t>MFRTD</t>
@@ -772,7 +762,7 @@
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>MUX</t>
     </r>
@@ -795,27 +785,63 @@
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
   </si>
   <si>
-    <t>PC4@W+4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>link</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>Tnew</t>
+  </si>
+  <si>
+    <t>Tuse1</t>
+  </si>
+  <si>
+    <t>Tuse2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -827,36 +853,30 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
@@ -869,38 +889,38 @@
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -911,19 +931,149 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,8 +1128,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1222,263 +1558,539 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1736,534 +2348,534 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="49" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" style="49" customWidth="1"/>
-    <col min="4" max="5" width="9" style="49"/>
-    <col min="6" max="6" width="4.33203125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="49" customWidth="1"/>
-    <col min="8" max="9" width="8.33203125" style="49" customWidth="1"/>
-    <col min="10" max="15" width="11.44140625" style="49" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="4.33333333333333" style="73" customWidth="1"/>
+    <col min="2" max="3" width="6.33333333333333" style="73" customWidth="1"/>
+    <col min="4" max="5" width="9" style="73"/>
+    <col min="6" max="6" width="4.33333333333333" style="73" customWidth="1"/>
+    <col min="7" max="7" width="7.33333333333333" style="73" customWidth="1"/>
+    <col min="8" max="9" width="8.33333333333333" style="73" customWidth="1"/>
+    <col min="10" max="15" width="11.4416666666667" style="73" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H1" s="49" t="s">
+    <row r="1" spans="8:17">
+      <c r="H1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="2:17">
+      <c r="B3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="73">
         <v>1</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="73">
         <v>1</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="73">
         <v>1</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="73">
         <v>1</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="73">
         <v>1</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="73">
         <v>1</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="73">
         <v>1</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="73">
         <v>1</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="73">
         <v>1</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+    <row r="4" spans="2:17">
+      <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="2:17">
+      <c r="B5" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="73" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="49" t="s">
+    <row r="6" spans="3:17">
+      <c r="C6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="49" t="s">
+      <c r="P6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="73" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="73">
         <v>1</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="73">
         <v>1</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="73">
         <v>1</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="73">
         <v>1</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="73">
         <v>1</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="73">
         <v>1</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="73">
         <v>1</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="73">
         <v>1</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P7" s="73">
         <v>1</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+    <row r="8" spans="2:17">
+      <c r="B8" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="49" t="s">
+      <c r="P8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="49" t="s">
+      <c r="Q8" s="73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="49" t="s">
+    <row r="9" spans="3:16">
+      <c r="C9" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="49" t="s">
+      <c r="P9" s="73" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="73" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+    <row r="11" spans="2:16">
+      <c r="B11" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="49" t="s">
+      <c r="P11" s="73" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:15">
+      <c r="B12" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="M12" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="49" t="s">
+      <c r="O12" s="73" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+    <row r="13" spans="2:15">
+      <c r="B13" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="51" t="s">
+      <c r="K13" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="51" t="s">
+      <c r="M13" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="75" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+    <row r="14" spans="2:13">
+      <c r="B14" s="73" t="s">
         <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="M14" s="73" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:12">
+      <c r="B15" s="73" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="73" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="49" t="s">
+    <row r="16" spans="3:15">
+      <c r="C16" s="73" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="49" t="s">
+      <c r="M16" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="49" t="s">
+      <c r="O16" s="73" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="49" t="s">
+    <row r="17" spans="3:13">
+      <c r="C17" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M17" s="73" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="73" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
@@ -2275,15 +2887,15 @@
       <c r="K18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="50" t="s">
+      <c r="M18" s="74" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+    <row r="19" spans="2:15">
+      <c r="B19" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="73" t="s">
         <v>54</v>
       </c>
       <c r="H19" t="s">
@@ -2295,113 +2907,113 @@
       <c r="K19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="50" t="s">
+      <c r="M19" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="50"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="O19" s="74"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="73" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="49" t="s">
+      <c r="L20" s="73" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:11">
+      <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="K21" s="73" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="49" t="s">
+    <row r="22" spans="3:12">
+      <c r="C22" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="49" t="s">
+      <c r="L22" s="73" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="73" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:12">
+      <c r="B24" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="73" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="s">
+    <row r="25" spans="2:12">
+      <c r="B25" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="73" t="s">
         <v>14</v>
       </c>
       <c r="L25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+    <row r="26" spans="2:12">
+      <c r="B26" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="L26" s="73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" s="73" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="73" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
@@ -2411,3280 +3023,3284 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="49" t="s">
+    <row r="29" spans="2:11">
+      <c r="B29" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K29" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="49" t="s">
+    <row r="30" spans="2:11">
+      <c r="B30" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="73" t="s">
         <v>38</v>
       </c>
       <c r="K30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
+    <row r="31" spans="2:11">
+      <c r="B31" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="49" t="s">
+      <c r="J31" s="73" t="s">
         <v>68</v>
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="49" t="s">
+    <row r="32" spans="3:15">
+      <c r="C32" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="73">
         <v>1</v>
       </c>
-      <c r="J32" s="49">
+      <c r="J32" s="73">
         <v>1</v>
       </c>
-      <c r="M32" s="49" t="s">
+      <c r="M32" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="49" t="s">
+      <c r="N32" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="49" t="s">
+      <c r="O32" s="73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+    <row r="33" spans="1:15">
+      <c r="A33" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="G33" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="50" t="s">
+      <c r="M33" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="49" t="s">
+      <c r="N33" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="50" t="s">
+      <c r="O33" s="74" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="49" t="s">
+    <row r="34" spans="2:15">
+      <c r="B34" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="50" t="s">
+      <c r="M34" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="50" t="s">
+      <c r="N34" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="50" t="s">
+      <c r="O34" s="74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C35" s="49" t="s">
+    <row r="35" spans="3:16">
+      <c r="C35" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="49" t="s">
+      <c r="N35" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="49" t="s">
+      <c r="P35" s="73" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G36" s="49" t="s">
+    <row r="36" spans="7:16">
+      <c r="G36" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="49" t="s">
+      <c r="N36" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="P36" s="49" t="s">
+      <c r="P36" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G37" s="49" t="s">
+    <row r="37" spans="7:7">
+      <c r="G37" s="73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G38" s="49" t="s">
+    <row r="38" spans="7:14">
+      <c r="G38" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="50" t="s">
+      <c r="N38" s="74" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G39" s="49" t="s">
+    <row r="39" spans="7:16">
+      <c r="G39" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="P39" s="50" t="s">
+      <c r="N39" s="74"/>
+      <c r="P39" s="74" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="49" t="s">
+    <row r="40" spans="6:14">
+      <c r="F40" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="49" t="s">
+      <c r="G40" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="49" t="s">
+      <c r="N40" s="73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G41" s="49" t="s">
+    <row r="41" spans="7:14">
+      <c r="G41" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="49" t="s">
+      <c r="N41" s="73" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1"/>
-    <hyperlink ref="K13" r:id="rId2"/>
-    <hyperlink ref="M13" r:id="rId3"/>
-    <hyperlink ref="M18" r:id="rId4"/>
-    <hyperlink ref="M19" r:id="rId5"/>
-    <hyperlink ref="H33" r:id="rId6"/>
-    <hyperlink ref="J33" r:id="rId7"/>
-    <hyperlink ref="M33" r:id="rId8"/>
-    <hyperlink ref="M34" r:id="rId9"/>
-    <hyperlink ref="N34" r:id="rId10"/>
-    <hyperlink ref="H34" r:id="rId11"/>
-    <hyperlink ref="G31" r:id="rId12"/>
-    <hyperlink ref="J34" r:id="rId13"/>
-    <hyperlink ref="N38" r:id="rId14" tooltip="mailto:IR@W[25:0]"/>
-    <hyperlink ref="O34" r:id="rId15"/>
-    <hyperlink ref="O33" r:id="rId16"/>
-    <hyperlink ref="O13" r:id="rId17"/>
-    <hyperlink ref="G11" r:id="rId18"/>
-    <hyperlink ref="P39" r:id="rId19"/>
+    <hyperlink ref="J13" r:id="rId1" display="IR@D[15:0]"/>
+    <hyperlink ref="K13" r:id="rId1" display="IR@D[15:0]"/>
+    <hyperlink ref="M13" r:id="rId1" display="IR@D[15:0]"/>
+    <hyperlink ref="M18" r:id="rId2" display="A@D"/>
+    <hyperlink ref="M19" r:id="rId3" display="ER@D"/>
+    <hyperlink ref="H33" r:id="rId4" display="rd@W"/>
+    <hyperlink ref="J33" r:id="rId5" display="rt@W"/>
+    <hyperlink ref="M33" r:id="rId5" display="rt@W"/>
+    <hyperlink ref="M34" r:id="rId6" display="ALUC@W"/>
+    <hyperlink ref="N34" r:id="rId7" display="PC@W"/>
+    <hyperlink ref="H34" r:id="rId8" display="C@W"/>
+    <hyperlink ref="G31" r:id="rId9" display="DMDO@W"/>
+    <hyperlink ref="J34" r:id="rId9" display="DMDO@W"/>
+    <hyperlink ref="N38" r:id="rId10" display="IR@W[25:0]" tooltip="mailto:IR@W[25:0]"/>
+    <hyperlink ref="O34" r:id="rId11" display="ER@W"/>
+    <hyperlink ref="O33" r:id="rId5" display="rt@W"/>
+    <hyperlink ref="O13" r:id="rId1" display="IR@D[15:0]"/>
+    <hyperlink ref="G11" r:id="rId12" display="JR@D"/>
+    <hyperlink ref="P39" r:id="rId13" display="JR@W"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7" style="32" customWidth="1"/>
-    <col min="3" max="4" width="11" style="32" customWidth="1"/>
-    <col min="5" max="6" width="9.6640625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="32" customWidth="1"/>
-    <col min="9" max="10" width="11" style="32" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="32" customWidth="1"/>
-    <col min="12" max="14" width="11" style="32" customWidth="1"/>
-    <col min="15" max="15" width="7" style="32" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="32" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="32" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="32" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" style="32" customWidth="1"/>
-    <col min="21" max="21" width="9" style="32"/>
-    <col min="22" max="22" width="9.6640625" style="32" customWidth="1"/>
-    <col min="23" max="24" width="7" style="32" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="5.775" style="53" customWidth="1"/>
+    <col min="2" max="2" width="7" style="53" customWidth="1"/>
+    <col min="3" max="4" width="11" style="53" customWidth="1"/>
+    <col min="5" max="6" width="9.66666666666667" style="53" customWidth="1"/>
+    <col min="7" max="7" width="11" style="53" customWidth="1"/>
+    <col min="8" max="8" width="12.4416666666667" style="53" customWidth="1"/>
+    <col min="9" max="10" width="11" style="53" customWidth="1"/>
+    <col min="11" max="11" width="9.66666666666667" style="53" customWidth="1"/>
+    <col min="12" max="14" width="11" style="53" customWidth="1"/>
+    <col min="15" max="15" width="7" style="53" customWidth="1"/>
+    <col min="16" max="16" width="8.33333333333333" style="53" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" style="53" customWidth="1"/>
+    <col min="18" max="18" width="8.33333333333333" style="53" customWidth="1"/>
+    <col min="19" max="19" width="8.10833333333333" style="53" customWidth="1"/>
+    <col min="20" max="20" width="12.4416666666667" style="53" customWidth="1"/>
+    <col min="21" max="21" width="9" style="53"/>
+    <col min="22" max="22" width="9.66666666666667" style="53" customWidth="1"/>
+    <col min="23" max="24" width="7" style="53" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="40">
+      <c r="O1" s="64">
         <v>0</v>
       </c>
-      <c r="P1" s="40">
+      <c r="P1" s="64">
         <v>1</v>
       </c>
-      <c r="Q1" s="40">
+      <c r="Q1" s="64">
         <v>2</v>
       </c>
-      <c r="R1" s="45">
+      <c r="R1" s="69">
         <v>3</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="32">
+      <c r="V1" s="53">
         <v>0</v>
       </c>
-      <c r="W1" s="32">
+      <c r="W1" s="53">
         <v>1</v>
       </c>
-      <c r="X1" s="32">
+      <c r="X1" s="53">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:24">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="32" t="s">
+      <c r="R2" s="66"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="47" t="s">
+      <c r="W2" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="47" t="s">
+      <c r="X2" s="71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="46"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34" t="s">
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="70"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="46"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="70"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="46"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="35" t="s">
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="70"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36" t="s">
+      <c r="K6" s="57"/>
+      <c r="L6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="46"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="70"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33" t="s">
+      <c r="L7" s="54"/>
+      <c r="M7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="46"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="34" t="s">
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="70"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="54"/>
+      <c r="H8" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33" t="s">
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="46"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="70"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33" t="s">
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="46"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="70"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33" t="s">
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="46"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="34" t="s">
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="70"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="46"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="70"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="43" t="s">
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="32" t="s">
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="V12" s="32" t="s">
+      <c r="V12" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="48" t="s">
+      <c r="W12" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="X12" s="47" t="s">
+      <c r="X12" s="71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="1:24">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="43" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="32" t="s">
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="47" t="s">
+      <c r="W13" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="X13" s="47" t="s">
+      <c r="X13" s="71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+    <row r="14" spans="1:19">
+      <c r="A14" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="44" t="s">
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="46"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="37" t="s">
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="70"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="44" t="s">
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="46"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="37" t="s">
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="70"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="58"/>
+      <c r="B16" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="33" t="s">
+      <c r="H16" s="62"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="46"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="37" t="s">
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="70"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="33" t="s">
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="46"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="37" t="s">
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="70"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38">
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59">
         <v>31</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38" t="s">
+      <c r="K18" s="59"/>
+      <c r="L18" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="41" t="s">
+      <c r="P18" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="65">
         <v>31</v>
       </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="46"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="37" t="s">
+      <c r="R18" s="66"/>
+      <c r="S18" s="70"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38" t="s">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="37" t="s">
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="33" t="s">
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="43" t="s">
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="T21" s="32" t="s">
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="T21" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="V21" s="47" t="s">
+      <c r="V21" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="W21" s="47" t="s">
+      <c r="W21" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="X21" s="47" t="s">
+      <c r="X21" s="71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="34" t="s">
+    <row r="22" spans="1:24">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="41" t="s">
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="41" t="s">
+      <c r="N22" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="O22" s="43" t="s">
+      <c r="O22" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="41" t="s">
+      <c r="P22" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="T22" s="32" t="s">
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="T22" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="V22" s="47" t="s">
+      <c r="V22" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="W22" s="47" t="s">
+      <c r="W22" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="X22" s="47" t="s">
+      <c r="X22" s="71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+    <row r="23" spans="1:18">
+      <c r="A23" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="42" t="s">
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="37" t="s">
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="61"/>
+      <c r="B24" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="42" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="37" t="s">
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="61"/>
+      <c r="B25" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="44" t="s">
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="37" t="s">
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="61"/>
+      <c r="B26" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="38" t="s">
+      <c r="D26" s="62"/>
+      <c r="E26" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38" t="s">
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="M26" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="37" t="s">
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="61"/>
+      <c r="B27" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38" t="s">
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="33" t="s">
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="37" t="s">
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="63"/>
+      <c r="B28" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38" t="s">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="M28" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33" t="s">
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="34" t="s">
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="43" t="s">
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38" t="s">
+      <c r="D31" s="59"/>
+      <c r="E31" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="33" t="s">
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="37" t="s">
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="61"/>
+      <c r="B32" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38" t="s">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="33" t="s">
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="37" t="s">
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="61"/>
+      <c r="B33" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="33" t="s">
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="37" t="s">
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="61"/>
+      <c r="B34" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="44" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="37" t="s">
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="63"/>
+      <c r="B35" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="M35" s="42" t="s">
+      <c r="M35" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33" t="s">
+      <c r="D36" s="54"/>
+      <c r="E36" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33" t="s">
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="34" t="s">
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="55"/>
+      <c r="B37" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33" t="s">
+      <c r="D37" s="54"/>
+      <c r="E37" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33" t="s">
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33" t="s">
+      <c r="K37" s="54"/>
+      <c r="L37" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="41" t="s">
+      <c r="M37" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="41" t="s">
+      <c r="N37" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="O37" s="41" t="s">
+      <c r="O37" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="P37" s="41" t="s">
+      <c r="P37" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="Q37" s="41" t="s">
+      <c r="Q37" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="R37" s="41" t="s">
+      <c r="R37" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="S37" s="46"/>
+      <c r="S37" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A20"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="5.775" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="12.21875" customWidth="1"/>
+    <col min="5" max="6" width="12.2166666666667" customWidth="1"/>
     <col min="7" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5583333333333" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="8.55833333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="16" max="16" width="12.2166666666667" customWidth="1"/>
+    <col min="17" max="17" width="12.8833333333333" customWidth="1"/>
+    <col min="22" max="22" width="10.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
+    <row r="1" ht="17.25" spans="3:22">
+      <c r="C1" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="29">
+      <c r="O1" s="49">
         <v>0</v>
       </c>
-      <c r="P1" s="29">
+      <c r="P1" s="49">
         <v>1</v>
       </c>
-      <c r="Q1" s="29">
+      <c r="Q1" s="49">
         <v>2</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="36" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" ht="23.25" spans="1:22">
+      <c r="A2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="V2" s="21"/>
-    </row>
-    <row r="3" spans="1:22" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="V2" s="39"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:22">
+      <c r="A3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="V3" s="22" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="V3" s="40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" ht="17.25" spans="1:22">
+      <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="V4" s="22" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="V4" s="40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" ht="23.25" spans="1:22">
+      <c r="A5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" ht="17.25" spans="1:22">
+      <c r="A6" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="V6" s="25" t="s">
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="V6" s="43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" ht="34.2" customHeight="1" spans="1:22">
+      <c r="A7" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="25" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="V7" s="25" t="s">
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="V7" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+    <row r="8" ht="34.2" customHeight="1" spans="1:22">
+      <c r="A8" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22" t="s">
+      <c r="J8" s="39"/>
+      <c r="K8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="V8" s="22" t="s">
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="V8" s="40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" ht="34.2" customHeight="1" spans="1:22">
+      <c r="A9" s="48"/>
+      <c r="B9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="39"/>
+      <c r="H9" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="V9" s="21"/>
-    </row>
-    <row r="10" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="V9" s="39"/>
+    </row>
+    <row r="10" ht="51" customHeight="1" spans="1:22">
+      <c r="A10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="V10" s="21"/>
-    </row>
-    <row r="11" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="V10" s="39"/>
+    </row>
+    <row r="11" ht="34.2" customHeight="1" spans="1:22">
+      <c r="A11" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="V11" s="21"/>
-    </row>
-    <row r="12" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="28" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="V11" s="39"/>
+    </row>
+    <row r="12" ht="34.2" customHeight="1" spans="1:22">
+      <c r="A12" s="48"/>
+      <c r="B12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="V12" s="21"/>
-    </row>
-    <row r="13" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="V12" s="39"/>
+    </row>
+    <row r="13" ht="34.2" customHeight="1" spans="1:22">
+      <c r="A13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22" t="s">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="V13" s="21"/>
-    </row>
-    <row r="14" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="28" t="s">
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="V13" s="39"/>
+    </row>
+    <row r="14" ht="51" customHeight="1" spans="1:22">
+      <c r="A14" s="48"/>
+      <c r="B14" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22" t="s">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="V14" s="21"/>
-    </row>
-    <row r="15" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="V14" s="39"/>
+    </row>
+    <row r="15" ht="23.25" spans="1:22">
+      <c r="A15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="25" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="V15" s="25" t="s">
+      <c r="L15" s="45"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="V15" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" ht="23.25" spans="1:22">
+      <c r="A16" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="25" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25" t="s">
+      <c r="K16" s="43"/>
+      <c r="L16" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="V16" s="25" t="s">
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="V16" s="43" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" ht="23.25" spans="1:22">
+      <c r="A17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="25" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="25" t="s">
+      <c r="K17" s="43"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="V17" s="25" t="s">
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="V17" s="43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="18" ht="23.25" spans="1:22">
+      <c r="A18" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25" t="s">
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="V18" s="27"/>
-    </row>
-    <row r="19" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="V18" s="45"/>
+    </row>
+    <row r="19" ht="23.25" spans="1:22">
+      <c r="A19" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="25" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="25" t="s">
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="V19" s="27"/>
-    </row>
-    <row r="20" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="V19" s="45"/>
+    </row>
+    <row r="20" ht="23.25" spans="1:22">
+      <c r="A20" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="25" t="s">
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25" t="s">
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="V20" s="27"/>
-    </row>
-    <row r="21" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="V20" s="45"/>
+    </row>
+    <row r="21" ht="23.25" spans="1:22">
+      <c r="A21" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22" t="s">
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="V21" s="21"/>
-    </row>
-    <row r="22" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="28" t="s">
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="V21" s="39"/>
+    </row>
+    <row r="22" ht="23.25" spans="1:22">
+      <c r="A22" s="48"/>
+      <c r="B22" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="22" t="s">
+      <c r="P22" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Q22" s="21"/>
-      <c r="V22" s="21"/>
-    </row>
-    <row r="23" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="Q22" s="39"/>
+      <c r="V22" s="39"/>
+    </row>
+    <row r="23" ht="23.25" spans="1:22">
+      <c r="A23" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="25" t="s">
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25" t="s">
+      <c r="K23" s="43"/>
+      <c r="L23" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="V23" s="25" t="s">
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="V23" s="43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+    <row r="24" ht="23.25" spans="1:22">
+      <c r="A24" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="25" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="25" t="s">
+      <c r="K24" s="43"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="V24" s="25" t="s">
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="V24" s="43" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+    <row r="25" ht="23.25" spans="1:22">
+      <c r="A25" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="25" t="s">
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="V25" s="27"/>
-    </row>
-    <row r="26" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="V25" s="45"/>
+    </row>
+    <row r="26" ht="23.25" spans="1:22">
+      <c r="A26" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="25" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="25" t="s">
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="V26" s="27"/>
-    </row>
-    <row r="27" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="V26" s="45"/>
+    </row>
+    <row r="27" ht="23.25" spans="1:22">
+      <c r="A27" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="V27" s="21"/>
-    </row>
-    <row r="28" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="28" t="s">
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="V27" s="39"/>
+    </row>
+    <row r="28" ht="23.25" spans="1:22">
+      <c r="A28" s="48"/>
+      <c r="B28" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="V28" s="21"/>
-    </row>
-    <row r="29" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="V28" s="39"/>
+    </row>
+    <row r="29" ht="23.25" spans="1:22">
+      <c r="A29" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="25" t="s">
+      <c r="D29" s="45"/>
+      <c r="E29" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="25" t="s">
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25" t="s">
+      <c r="K29" s="43"/>
+      <c r="L29" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="V29" s="25" t="s">
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="V29" s="43" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+    <row r="30" ht="23.25" spans="1:22">
+      <c r="A30" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="25" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="25" t="s">
+      <c r="K30" s="43"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="V30" s="25" t="s">
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="V30" s="43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+    <row r="31" ht="23.25" spans="1:22">
+      <c r="A31" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="25" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="25" t="s">
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M31" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="V31" s="27"/>
-    </row>
-    <row r="32" spans="1:22" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="V31" s="45"/>
+    </row>
+    <row r="32" ht="23.25" spans="1:22">
+      <c r="A32" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="25" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="V32" s="27"/>
-    </row>
-    <row r="33" spans="1:22" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58" t="s">
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="V32" s="45"/>
+    </row>
+    <row r="33" ht="23.25" spans="1:22">
+      <c r="A33" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22" t="s">
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22" t="s">
+      <c r="K33" s="40"/>
+      <c r="L33" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="M33" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="N33" s="22" t="s">
+      <c r="N33" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="O33" s="22" t="s">
+      <c r="O33" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="P33" s="22" t="s">
+      <c r="P33" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="Q33" s="22" t="s">
+      <c r="Q33" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="V33" s="22" t="s">
+      <c r="V33" s="40" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="28" t="s">
+    <row r="34" ht="23.25" spans="1:22">
+      <c r="A34" s="48"/>
+      <c r="B34" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22" t="s">
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22" t="s">
+      <c r="K34" s="40"/>
+      <c r="L34" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="M34" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="N34" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="O34" s="22" t="s">
+      <c r="O34" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="P34" s="22" t="s">
+      <c r="P34" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="Q34" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="V34" s="22" t="s">
+      <c r="Q34" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="V34" s="40" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="18" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8" style="10" customWidth="1"/>
-    <col min="4" max="5" width="9.5546875" style="10" customWidth="1"/>
-    <col min="6" max="7" width="8" style="10" customWidth="1"/>
-    <col min="8" max="9" width="9.5546875" style="10" customWidth="1"/>
-    <col min="10" max="11" width="8" style="10" customWidth="1"/>
-    <col min="12" max="13" width="9.5546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="8" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.55833333333333" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.55833333333333" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.55833333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="60" t="s">
+    <row r="1" ht="18.6" customHeight="1" spans="1:14">
+      <c r="A1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="60" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:14">
+      <c r="A2" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="26" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="12" t="s">
+      <c r="N2" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="12" t="s">
+    </row>
+    <row r="3" ht="20.25" spans="1:14">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27">
+        <v>2</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="I3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="J3" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="K3" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="L3" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" ht="20.25" spans="1:14">
+      <c r="A4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" ht="20.25" spans="1:14">
+      <c r="A5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="13">
+      <c r="G5" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" ht="20.25" spans="1:14">
+      <c r="A6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" ht="20.25" spans="1:14">
+      <c r="A7" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" spans="1:14">
+      <c r="A8" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" ht="20.25" spans="1:14">
+      <c r="A9" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="28">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5698,361 +6314,362 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16383" width="8.88671875" style="1"/>
-    <col min="16384" max="16384" width="8.88671875"/>
+    <col min="1" max="1" width="11.1083333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.3333333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.6666666666667" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.1083333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.8833333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.66666666666667" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.33333333333333" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.4416666666667" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.66666666666667" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.33333333333333" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.21666666666667" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13.6666666666667" style="5" customWidth="1"/>
+    <col min="14" max="16383" width="8.88333333333333" style="5"/>
+    <col min="16384" max="16384" width="8.88333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="68" t="s">
+    <row r="1" ht="23.25" spans="1:13">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="68" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" ht="24" spans="1:13">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
-    </row>
-    <row r="2" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="71" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" ht="24" spans="1:13">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
-    </row>
-    <row r="3" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="M3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="9" t="s">
+    </row>
+    <row r="4" ht="24" spans="1:13">
+      <c r="A4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" ht="21.75" spans="1:13">
+      <c r="A5" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25" spans="1:13">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" ht="21.75" spans="1:13">
+      <c r="A7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C7" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="J7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" ht="23.25" spans="1:13">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H8" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I8" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K8" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L8" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="M8" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" ht="23.25" spans="1:13">
+      <c r="A9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C9" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" ht="21.75" spans="1:13">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="17">
+        <v>3</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="74">
-        <v>3</v>
-      </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="4">
-        <v>4</v>
-      </c>
-      <c r="J10" s="74">
+      <c r="J10" s="17">
         <v>1</v>
       </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="4">
+      <c r="K10" s="20"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6065,8 +6682,261 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="J10:L10"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
+  <cols>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/P5_CPU/流水线分析.xlsx
+++ b/P5_CPU/流水线分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="229">
   <si>
     <t>addu</t>
   </si>
@@ -649,6 +649,9 @@
     <t>0/31</t>
   </si>
   <si>
+    <t>beq, jr</t>
+  </si>
+  <si>
     <t>A1/A2</t>
   </si>
   <si>
@@ -661,9 +664,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>cal_r , jr</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
@@ -689,9 +689,6 @@
   </si>
   <si>
     <t>IF/ID</t>
-  </si>
-  <si>
-    <t>beq, jr</t>
   </si>
   <si>
     <t>MFRSD</t>
@@ -817,10 +814,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -931,14 +928,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -960,6 +949,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -975,9 +972,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,32 +1027,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1028,17 +1043,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,19 +1057,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1130,7 +1127,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,49 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,19 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1247,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,73 +1295,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,47 +1559,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,11 +1591,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1656,129 +1612,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1787,33 +1784,30 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2362,520 +2356,520 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.33333333333333" style="73" customWidth="1"/>
-    <col min="2" max="3" width="6.33333333333333" style="73" customWidth="1"/>
-    <col min="4" max="5" width="9" style="73"/>
-    <col min="6" max="6" width="4.33333333333333" style="73" customWidth="1"/>
-    <col min="7" max="7" width="7.33333333333333" style="73" customWidth="1"/>
-    <col min="8" max="9" width="8.33333333333333" style="73" customWidth="1"/>
-    <col min="10" max="15" width="11.4416666666667" style="73" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="73"/>
+    <col min="1" max="1" width="4.33333333333333" style="72" customWidth="1"/>
+    <col min="2" max="3" width="6.33333333333333" style="72" customWidth="1"/>
+    <col min="4" max="5" width="9" style="72"/>
+    <col min="6" max="6" width="4.33333333333333" style="72" customWidth="1"/>
+    <col min="7" max="7" width="7.33333333333333" style="72" customWidth="1"/>
+    <col min="8" max="9" width="8.33333333333333" style="72" customWidth="1"/>
+    <col min="10" max="15" width="11.4416666666667" style="72" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:17">
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="72">
         <v>1</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="72">
         <v>1</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="72">
         <v>1</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="72">
         <v>1</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3" s="72">
         <v>1</v>
       </c>
-      <c r="M3" s="73">
+      <c r="M3" s="72">
         <v>1</v>
       </c>
-      <c r="N3" s="73">
+      <c r="N3" s="72">
         <v>1</v>
       </c>
-      <c r="O3" s="73">
+      <c r="O3" s="72">
         <v>1</v>
       </c>
-      <c r="P3" s="73">
+      <c r="P3" s="72">
         <v>1</v>
       </c>
-      <c r="Q3" s="73">
+      <c r="Q3" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="73" t="s">
+      <c r="O5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="73" t="s">
+      <c r="P5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="73" t="s">
+      <c r="Q5" s="72" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:17">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="73" t="s">
+      <c r="M6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="73" t="s">
+      <c r="N6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="73" t="s">
+      <c r="O6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="73" t="s">
+      <c r="P6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="73" t="s">
+      <c r="Q6" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="72">
         <v>1</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="72">
         <v>1</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="72">
         <v>1</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="72">
         <v>1</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="72">
         <v>1</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="72">
         <v>1</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="72">
         <v>1</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O7" s="72">
         <v>1</v>
       </c>
-      <c r="P7" s="73">
+      <c r="P7" s="72">
         <v>1</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="73" t="s">
+      <c r="L8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="73" t="s">
+      <c r="M8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="73" t="s">
+      <c r="O8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="73" t="s">
+      <c r="P8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="3:16">
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="73" t="s">
+      <c r="L9" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="73" t="s">
+      <c r="M9" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="73" t="s">
+      <c r="P9" s="72" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="73" t="s">
+      <c r="P11" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="73" t="s">
+      <c r="O12" s="72" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="75" t="s">
+      <c r="K13" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="75" t="s">
+      <c r="O13" s="74" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="73" t="s">
+      <c r="L14" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="73" t="s">
+      <c r="M14" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="72" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="73" t="s">
+      <c r="L15" s="72" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="72" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="73" t="s">
+      <c r="M16" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="73" t="s">
+      <c r="O16" s="72" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="73" t="s">
+      <c r="J17" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="73" t="s">
+      <c r="K17" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="73" t="s">
+      <c r="M17" s="72" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="73" t="s">
+      <c r="G18" s="72" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
@@ -2887,15 +2881,15 @@
       <c r="K18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="74" t="s">
+      <c r="M18" s="73" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="72" t="s">
         <v>54</v>
       </c>
       <c r="H19" t="s">
@@ -2907,66 +2901,66 @@
       <c r="K19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="74" t="s">
+      <c r="M19" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="74"/>
+      <c r="O19" s="73"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="72" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="73" t="s">
+      <c r="L20" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="72" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="73" t="s">
+      <c r="L22" s="72" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="73" t="s">
+      <c r="L23" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="72" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="s">
@@ -2974,13 +2968,13 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="72" t="s">
         <v>14</v>
       </c>
       <c r="L25" t="s">
@@ -2988,32 +2982,32 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="73" t="s">
+      <c r="G26" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="73" t="s">
+      <c r="L26" s="72" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="72" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="73" t="s">
+      <c r="G28" s="72" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
@@ -3024,21 +3018,21 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="73">
+      <c r="K29" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="73" t="s">
+      <c r="G30" s="72" t="s">
         <v>38</v>
       </c>
       <c r="K30" t="s">
@@ -3046,158 +3040,158 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="74" t="s">
+      <c r="G31" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="73" t="s">
+      <c r="J31" s="72" t="s">
         <v>68</v>
       </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="73" t="s">
+      <c r="F32" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="73" t="s">
+      <c r="G32" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="72">
         <v>1</v>
       </c>
-      <c r="J32" s="73">
+      <c r="J32" s="72">
         <v>1</v>
       </c>
-      <c r="M32" s="73" t="s">
+      <c r="M32" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="73" t="s">
+      <c r="N32" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="73" t="s">
+      <c r="O32" s="72" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="73" t="s">
+      <c r="G33" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="74" t="s">
+      <c r="H33" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="74" t="s">
+      <c r="J33" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="74" t="s">
+      <c r="M33" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="73" t="s">
+      <c r="N33" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="74" t="s">
+      <c r="O33" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="73" t="s">
+      <c r="G34" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="74" t="s">
+      <c r="H34" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="74" t="s">
+      <c r="J34" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="74" t="s">
+      <c r="M34" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="74" t="s">
+      <c r="N34" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="74" t="s">
+      <c r="O34" s="73" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="3:16">
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="73" t="s">
+      <c r="N35" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="73" t="s">
+      <c r="P35" s="72" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="7:16">
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="73" t="s">
+      <c r="N36" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="P36" s="73" t="s">
+      <c r="P36" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="72" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="7:14">
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="74" t="s">
+      <c r="N38" s="73" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="7:16">
-      <c r="G39" s="73" t="s">
+      <c r="G39" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="74"/>
-      <c r="P39" s="74" t="s">
+      <c r="N39" s="73"/>
+      <c r="P39" s="73" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="6:14">
-      <c r="F40" s="73" t="s">
+      <c r="F40" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="73" t="s">
+      <c r="G40" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="73" t="s">
+      <c r="N40" s="72" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="7:14">
-      <c r="G41" s="73" t="s">
+      <c r="G41" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="73" t="s">
+      <c r="N41" s="72" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3239,1381 +3233,1381 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.775" style="53" customWidth="1"/>
-    <col min="2" max="2" width="7" style="53" customWidth="1"/>
-    <col min="3" max="4" width="11" style="53" customWidth="1"/>
-    <col min="5" max="6" width="9.66666666666667" style="53" customWidth="1"/>
-    <col min="7" max="7" width="11" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.4416666666667" style="53" customWidth="1"/>
-    <col min="9" max="10" width="11" style="53" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" style="53" customWidth="1"/>
-    <col min="12" max="14" width="11" style="53" customWidth="1"/>
-    <col min="15" max="15" width="7" style="53" customWidth="1"/>
-    <col min="16" max="16" width="8.33333333333333" style="53" customWidth="1"/>
-    <col min="17" max="17" width="9.66666666666667" style="53" customWidth="1"/>
-    <col min="18" max="18" width="8.33333333333333" style="53" customWidth="1"/>
-    <col min="19" max="19" width="8.10833333333333" style="53" customWidth="1"/>
-    <col min="20" max="20" width="12.4416666666667" style="53" customWidth="1"/>
-    <col min="21" max="21" width="9" style="53"/>
-    <col min="22" max="22" width="9.66666666666667" style="53" customWidth="1"/>
-    <col min="23" max="24" width="7" style="53" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="53"/>
+    <col min="1" max="1" width="5.775" style="52" customWidth="1"/>
+    <col min="2" max="2" width="7" style="52" customWidth="1"/>
+    <col min="3" max="4" width="11" style="52" customWidth="1"/>
+    <col min="5" max="6" width="9.66666666666667" style="52" customWidth="1"/>
+    <col min="7" max="7" width="11" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.4416666666667" style="52" customWidth="1"/>
+    <col min="9" max="10" width="11" style="52" customWidth="1"/>
+    <col min="11" max="11" width="9.66666666666667" style="52" customWidth="1"/>
+    <col min="12" max="14" width="11" style="52" customWidth="1"/>
+    <col min="15" max="15" width="7" style="52" customWidth="1"/>
+    <col min="16" max="16" width="8.33333333333333" style="52" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" style="52" customWidth="1"/>
+    <col min="18" max="18" width="8.33333333333333" style="52" customWidth="1"/>
+    <col min="19" max="19" width="8.10833333333333" style="52" customWidth="1"/>
+    <col min="20" max="20" width="12.4416666666667" style="52" customWidth="1"/>
+    <col min="21" max="21" width="9" style="52"/>
+    <col min="22" max="22" width="9.66666666666667" style="52" customWidth="1"/>
+    <col min="23" max="24" width="7" style="52" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="64">
+      <c r="O1" s="63">
         <v>0</v>
       </c>
-      <c r="P1" s="64">
+      <c r="P1" s="63">
         <v>1</v>
       </c>
-      <c r="Q1" s="64">
+      <c r="Q1" s="63">
         <v>2</v>
       </c>
-      <c r="R1" s="69">
+      <c r="R1" s="68">
         <v>3</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="53">
+      <c r="V1" s="52">
         <v>0</v>
       </c>
-      <c r="W1" s="53">
+      <c r="W1" s="52">
         <v>1</v>
       </c>
-      <c r="X1" s="53">
+      <c r="X1" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="Q2" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="53" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="71" t="s">
+      <c r="W2" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="71" t="s">
+      <c r="X2" s="70" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="70"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="69"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="70"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="69"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="70"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="69"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57" t="s">
+      <c r="K6" s="56"/>
+      <c r="L6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="70"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="69"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54" t="s">
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54" t="s">
+      <c r="L7" s="53"/>
+      <c r="M7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="70"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="69"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54" t="s">
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="70"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="69"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54" t="s">
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="70"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="69"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54" t="s">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="70"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="69"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54" t="s">
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="70"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="69"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="67" t="s">
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="53" t="s">
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="V12" s="53" t="s">
+      <c r="V12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="72" t="s">
+      <c r="W12" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="X12" s="71" t="s">
+      <c r="X12" s="70" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="67" t="s">
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="53" t="s">
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="V13" s="53" t="s">
+      <c r="V13" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="71" t="s">
+      <c r="W13" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="X13" s="71" t="s">
+      <c r="X13" s="70" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="68" t="s">
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="70"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="69"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="68" t="s">
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="70"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="69"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="54" t="s">
+      <c r="H16" s="61"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="70"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="69"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="54" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="70"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="69"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59" t="s">
+      <c r="D18" s="58"/>
+      <c r="E18" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59">
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58">
         <v>31</v>
       </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59" t="s">
+      <c r="K18" s="58"/>
+      <c r="L18" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="65" t="s">
+      <c r="M18" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="65" t="s">
+      <c r="N18" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="65" t="s">
+      <c r="O18" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="65" t="s">
+      <c r="P18" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="Q18" s="65">
+      <c r="Q18" s="64">
         <v>31</v>
       </c>
-      <c r="R18" s="66"/>
-      <c r="S18" s="70"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="69"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59" t="s">
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="68" t="s">
+      <c r="M19" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="54" t="s">
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="67" t="s">
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="T21" s="53" t="s">
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="T21" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="V21" s="71" t="s">
+      <c r="V21" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="W21" s="71" t="s">
+      <c r="W21" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="X21" s="71" t="s">
+      <c r="X21" s="70" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="65" t="s">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="65" t="s">
+      <c r="N22" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="O22" s="67" t="s">
+      <c r="O22" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="65" t="s">
+      <c r="P22" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="T22" s="53" t="s">
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="T22" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="V22" s="71" t="s">
+      <c r="V22" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="W22" s="71" t="s">
+      <c r="W22" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="X22" s="71" t="s">
+      <c r="X22" s="70" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59" t="s">
+      <c r="C23" s="58"/>
+      <c r="D23" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="66" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="61"/>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59" t="s">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="66" t="s">
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="61"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="68" t="s">
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="61"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="59" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59" t="s">
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="M26" s="54" t="s">
+      <c r="M26" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="61"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="54" t="s">
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="63"/>
-      <c r="B28" s="58" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="M28" s="66" t="s">
+      <c r="M28" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54" t="s">
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55" t="s">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="67" t="s">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G31" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="54" t="s">
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="61"/>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="54" t="s">
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="61"/>
-      <c r="B33" s="58" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="54" t="s">
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="61"/>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="68" t="s">
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="63"/>
-      <c r="B35" s="58" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="M35" s="66" t="s">
+      <c r="M35" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54" t="s">
+      <c r="D36" s="53"/>
+      <c r="E36" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="54" t="s">
+      <c r="G36" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54" t="s">
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54" t="s">
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54" t="s">
+      <c r="K37" s="53"/>
+      <c r="L37" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="65" t="s">
+      <c r="M37" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="65" t="s">
+      <c r="N37" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="O37" s="65" t="s">
+      <c r="O37" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="P37" s="65" t="s">
+      <c r="P37" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="Q37" s="65" t="s">
+      <c r="Q37" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="R37" s="65" t="s">
+      <c r="R37" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="S37" s="70"/>
+      <c r="S37" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4662,1210 +4656,1210 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="3:22">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>0</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="48">
         <v>1</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>2</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" ht="23.25" spans="1:22">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="V2" s="39"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" ht="17.25" spans="1:22">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="V3" s="40" t="s">
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="V3" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:22">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="V4" s="40" t="s">
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="V4" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="23.25" spans="1:22">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="V5" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:22">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="V6" s="43" t="s">
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="V6" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="43" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="V7" s="43" t="s">
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="V7" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="V8" s="40" t="s">
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="V8" s="39" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A9" s="48"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="V9" s="39"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="V9" s="38"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:22">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40" t="s">
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="V10" s="39"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="V10" s="38"/>
     </row>
     <row r="11" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="V11" s="39"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="V11" s="38"/>
     </row>
     <row r="12" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A12" s="48"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="V12" s="38"/>
     </row>
     <row r="13" ht="34.2" customHeight="1" spans="1:22">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="40" t="s">
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="V13" s="38"/>
     </row>
     <row r="14" ht="51" customHeight="1" spans="1:22">
-      <c r="A14" s="48"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40" t="s">
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="V14" s="39"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="V14" s="38"/>
     </row>
     <row r="15" ht="23.25" spans="1:22">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="43" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="V15" s="43" t="s">
+      <c r="L15" s="44"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="V15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" ht="23.25" spans="1:22">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="43" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43" t="s">
+      <c r="K16" s="42"/>
+      <c r="L16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="43" t="s">
+      <c r="M16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="V16" s="43" t="s">
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="V16" s="42" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" ht="23.25" spans="1:22">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="43" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="43" t="s">
+      <c r="K17" s="42"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="V17" s="43" t="s">
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="V17" s="42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" ht="23.25" spans="1:22">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="43" t="s">
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="V18" s="45"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="V18" s="44"/>
     </row>
     <row r="19" ht="23.25" spans="1:22">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="43" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="43" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="V19" s="45"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="V19" s="44"/>
     </row>
     <row r="20" ht="23.25" spans="1:22">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="43" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="43" t="s">
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="43" t="s">
+      <c r="M20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="V20" s="45"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="V20" s="44"/>
     </row>
     <row r="21" ht="23.25" spans="1:22">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40" t="s">
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="V21" s="39"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="V21" s="38"/>
     </row>
     <row r="22" ht="23.25" spans="1:22">
-      <c r="A22" s="48"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40" t="s">
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="40" t="s">
+      <c r="O22" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="40" t="s">
+      <c r="P22" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="Q22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="Q22" s="38"/>
+      <c r="V22" s="38"/>
     </row>
     <row r="23" ht="23.25" spans="1:22">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="43" t="s">
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43" t="s">
+      <c r="K23" s="42"/>
+      <c r="L23" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="43" t="s">
+      <c r="M23" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="V23" s="43" t="s">
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="V23" s="42" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24" ht="23.25" spans="1:22">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="43" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="43" t="s">
+      <c r="K24" s="42"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="V24" s="43" t="s">
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="V24" s="42" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" ht="23.25" spans="1:22">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="43" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="43" t="s">
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="43" t="s">
+      <c r="M25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="V25" s="45"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="V25" s="44"/>
     </row>
     <row r="26" ht="23.25" spans="1:22">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="43" t="s">
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="V26" s="45"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="V26" s="44"/>
     </row>
     <row r="27" ht="23.25" spans="1:22">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40" t="s">
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="V27" s="38"/>
     </row>
     <row r="28" ht="23.25" spans="1:22">
-      <c r="A28" s="48"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40" t="s">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="V28" s="38"/>
     </row>
     <row r="29" ht="23.25" spans="1:22">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="43" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="43" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="43" t="s">
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43" t="s">
+      <c r="K29" s="42"/>
+      <c r="L29" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="43" t="s">
+      <c r="M29" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="V29" s="43" t="s">
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="V29" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" ht="23.25" spans="1:22">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="43" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="43" t="s">
+      <c r="K30" s="42"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="V30" s="43" t="s">
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="V30" s="42" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" ht="23.25" spans="1:22">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="43" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="43" t="s">
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="43" t="s">
+      <c r="M31" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="V31" s="45"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="V31" s="44"/>
     </row>
     <row r="32" ht="23.25" spans="1:22">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="43" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="43" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="V32" s="45"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="V32" s="44"/>
     </row>
     <row r="33" ht="23.25" spans="1:22">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40" t="s">
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40" t="s">
+      <c r="K33" s="39"/>
+      <c r="L33" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="M33" s="40" t="s">
+      <c r="M33" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="N33" s="40" t="s">
+      <c r="N33" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="O33" s="40" t="s">
+      <c r="O33" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="P33" s="40" t="s">
+      <c r="P33" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="Q33" s="40" t="s">
+      <c r="Q33" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="V33" s="40" t="s">
+      <c r="V33" s="39" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="34" ht="23.25" spans="1:22">
-      <c r="A34" s="48"/>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40" t="s">
+      <c r="D34" s="38"/>
+      <c r="E34" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40" t="s">
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40" t="s">
+      <c r="K34" s="39"/>
+      <c r="L34" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M34" s="40" t="s">
+      <c r="M34" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="N34" s="40" t="s">
+      <c r="N34" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="O34" s="40" t="s">
+      <c r="O34" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="P34" s="40" t="s">
+      <c r="P34" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="Q34" s="52" t="s">
+      <c r="Q34" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="V34" s="40" t="s">
+      <c r="V34" s="39" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5889,8 +5883,8 @@
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="19.5"/>
@@ -5908,379 +5902,379 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.6" customHeight="1" spans="1:14">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="33" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:14">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3" ht="20.25" spans="1:14">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26">
         <v>1</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>1</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>2</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <v>0</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="26" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:14">
-      <c r="A4" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="28">
+      <c r="B4" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" ht="20.25" spans="1:14">
+      <c r="A5" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="G5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" ht="20.25" spans="1:14">
+      <c r="A6" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="G6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" ht="20.25" spans="1:14">
+      <c r="A7" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="K4" s="31" t="s">
+      <c r="G7" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" spans="1:14">
+      <c r="A8" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="G8" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="H8" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="I8" s="30" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" ht="20.25" spans="1:14">
-      <c r="A5" s="30" t="s">
+      <c r="J8" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" ht="20.25" spans="1:14">
+      <c r="A9" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="27">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="E9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="F9" s="30" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="6" ht="20.25" spans="1:14">
-      <c r="A6" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="28">
-        <v>1</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="G9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="H9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="I9" s="30" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="7" ht="20.25" spans="1:14">
-      <c r="A7" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="28">
-        <v>1</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="J9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="K9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" ht="20.25" spans="1:14">
-      <c r="A8" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="28">
-        <v>1</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" ht="20.25" spans="1:14">
-      <c r="A9" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="28">
-        <v>2</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>189</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
@@ -6324,352 +6318,352 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1083333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.3333333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.6666666666667" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.1083333333333" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.8833333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.33333333333333" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.4416666666667" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.33333333333333" style="5" customWidth="1"/>
-    <col min="12" max="12" width="6.21666666666667" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.6666666666667" style="5" customWidth="1"/>
-    <col min="14" max="16383" width="8.88333333333333" style="5"/>
+    <col min="1" max="1" width="11.1083333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.3333333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.1083333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.8833333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.66666666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.33333333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.4416666666667" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.66666666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.33333333333333" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.21666666666667" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.6666666666667" style="4" customWidth="1"/>
+    <col min="14" max="16383" width="8.88333333333333" style="4"/>
     <col min="16384" max="16384" width="8.88333333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" spans="1:13">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="10" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="21"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" ht="24" spans="1:13">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="22"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" ht="24" spans="1:13">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="14" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:13">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" ht="21.75" spans="1:13">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25" spans="1:13">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="I6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" ht="23.25" spans="1:13">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8" t="s">
+    <row r="7" ht="21.75" spans="1:13">
+      <c r="A7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" ht="23.25" spans="1:13">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" ht="23.25" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" ht="21.75" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" ht="21.75" spans="1:13">
-      <c r="A7" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" ht="23.25" spans="1:13">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" ht="23.25" spans="1:13">
-      <c r="A9" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" ht="21.75" spans="1:13">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="17">
-        <v>3</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="8">
-        <v>4</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>1</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="8">
+      <c r="K10" s="19"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="7">
         <v>2</v>
       </c>
     </row>
@@ -6713,13 +6707,13 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>182</v>
@@ -6727,8 +6721,8 @@
       <c r="H1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>225</v>
+      <c r="I1" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6741,7 +6735,7 @@
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
@@ -6765,13 +6759,13 @@
       <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
@@ -6784,12 +6778,12 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>31</v>
       </c>
       <c r="E4" s="2"/>
@@ -6804,7 +6798,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -6812,7 +6806,7 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="2"/>
@@ -6827,7 +6821,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -6835,11 +6829,11 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="2">
@@ -6854,18 +6848,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2">
         <v>2</v>
       </c>
@@ -6897,7 +6891,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -6913,7 +6907,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
